--- a/SubRES_TMPL/SubRes_RCI_Techs.xlsx
+++ b/SubRES_TMPL/SubRes_RCI_Techs.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\!Olexandr\ResLab\Modelling\TIMES\TIMES-Shire\SubRES_TMPL\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="12585" yWindow="345" windowWidth="7905" windowHeight="9120" tabRatio="727"/>
   </bookViews>
@@ -26,7 +21,7 @@
     <definedName name="VARWSTBO">'[2]O&amp;M waste '!$D$5</definedName>
     <definedName name="VARWSTBP">'[2]O&amp;M waste '!$D$4</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -36,7 +31,7 @@
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="I10" authorId="0" shapeId="0">
+    <comment ref="I10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -65,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="120">
   <si>
     <t>YEAR</t>
   </si>
@@ -385,9 +380,6 @@
     <t>Residential cooling technology  - AC - new 1</t>
   </si>
   <si>
-    <t>RESELC</t>
-  </si>
-  <si>
     <t>RESC</t>
   </si>
   <si>
@@ -406,9 +398,6 @@
     <t>COMELCH</t>
   </si>
   <si>
-    <t>COMH</t>
-  </si>
-  <si>
     <t>COMC</t>
   </si>
   <si>
@@ -428,24 +417,27 @@
   </si>
   <si>
     <t>RESHX</t>
+  </si>
+  <si>
+    <t>COMHB</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="11">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="167" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-"/>
-    <numFmt numFmtId="168" formatCode="_-&quot;€&quot;\ * #,##0.00_-;\-&quot;€&quot;\ * #,##0.00_-;_-&quot;€&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="169" formatCode="#,##0;\-\ #,##0;_-\ &quot;- &quot;"/>
-    <numFmt numFmtId="170" formatCode="_([$€]* #,##0.00_);_([$€]* \(#,##0.00\);_([$€]* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="171" formatCode="\Te\x\t"/>
-    <numFmt numFmtId="172" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="168" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-"/>
+    <numFmt numFmtId="169" formatCode="_-&quot;€&quot;\ * #,##0.00_-;\-&quot;€&quot;\ * #,##0.00_-;_-&quot;€&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="170" formatCode="#,##0;\-\ #,##0;_-\ &quot;- &quot;"/>
+    <numFmt numFmtId="171" formatCode="_([$€]* #,##0.00_);_([$€]* \(#,##0.00\);_([$€]* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="172" formatCode="\Te\x\t"/>
+    <numFmt numFmtId="173" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="51" x14ac:knownFonts="1">
     <font>
@@ -1424,17 +1416,17 @@
     <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="5">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
@@ -1442,318 +1434,318 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="5">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="168" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="168" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="168" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
@@ -1761,488 +1753,488 @@
     <xf numFmtId="4" fontId="33" fillId="0" borderId="0" applyBorder="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
@@ -2497,314 +2489,314 @@
     <xf numFmtId="0" fontId="31" fillId="25" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="25" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="25" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
@@ -3314,57 +3306,57 @@
     <xf numFmtId="0" fontId="44" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="45" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="35" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="35" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="43" fillId="37" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="44" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="44" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3372,303 +3364,303 @@
     <xf numFmtId="0" fontId="44" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="44" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="44" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="47" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
@@ -3792,50 +3784,50 @@
     <xf numFmtId="0" fontId="36" fillId="38" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="36" fillId="38" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="36" fillId="38" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
@@ -4118,7 +4110,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="41" fillId="0" borderId="1" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="41" fillId="0" borderId="1" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -4157,7 +4149,7 @@
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="41" fillId="0" borderId="0" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="41" fillId="0" borderId="0" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -4199,33 +4191,33 @@
     <xf numFmtId="0" fontId="41" fillId="34" borderId="1" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="7" fillId="28" borderId="0" xfId="865" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="171" fontId="7" fillId="0" borderId="0" xfId="865" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="3" fillId="26" borderId="13" xfId="865" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="7" fillId="28" borderId="0" xfId="865" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="172" fontId="7" fillId="0" borderId="0" xfId="865" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="172" fontId="3" fillId="26" borderId="13" xfId="865" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="10" fillId="29" borderId="12" xfId="865" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="10" fillId="29" borderId="12" xfId="865" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="7" fillId="0" borderId="0" xfId="865" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="171" fontId="7" fillId="0" borderId="0" xfId="865" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="171" fontId="7" fillId="0" borderId="0" xfId="865" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="9" fillId="0" borderId="0" xfId="865" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="7" fillId="0" borderId="0" xfId="865" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="10" fillId="29" borderId="14" xfId="865" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="7" fillId="0" borderId="0" xfId="865" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="172" fontId="7" fillId="0" borderId="0" xfId="865" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="172" fontId="7" fillId="0" borderId="0" xfId="865" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="9" fillId="0" borderId="0" xfId="865" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="172" fontId="7" fillId="0" borderId="0" xfId="865" applyNumberFormat="1"/>
+    <xf numFmtId="172" fontId="10" fillId="29" borderId="14" xfId="865" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="10" fillId="29" borderId="14" xfId="865" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="10" fillId="29" borderId="14" xfId="865" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="8" fillId="0" borderId="0" xfId="865" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="8" fillId="0" borderId="0" xfId="865" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="171" fontId="9" fillId="0" borderId="0" xfId="865" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="9" fillId="0" borderId="0" xfId="865" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="36" fillId="0" borderId="0" xfId="48" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="8" fillId="0" borderId="0" xfId="865" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="36" fillId="0" borderId="0" xfId="48" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="172" fontId="8" fillId="0" borderId="0" xfId="865" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4249,28 +4241,28 @@
     <xf numFmtId="2" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="42" fillId="0" borderId="0" xfId="865" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="42" fillId="0" borderId="0" xfId="865" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="172" fontId="42" fillId="0" borderId="0" xfId="865" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="172" fontId="42" fillId="0" borderId="0" xfId="865" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="862"/>
     <xf numFmtId="0" fontId="41" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="41" fillId="0" borderId="15" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="41" fillId="0" borderId="15" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="862" applyFill="1"/>
-    <xf numFmtId="171" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="172" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFill="1"/>
     <xf numFmtId="2" fontId="42" fillId="34" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7109,7 +7101,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7144,7 +7136,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7358,35 +7350,35 @@
   </sheetPr>
   <dimension ref="A2:Y84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1328125" style="19"/>
-    <col min="2" max="2" width="10.73046875" style="19" customWidth="1"/>
-    <col min="3" max="3" width="15.265625" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="76.3984375" style="19" customWidth="1"/>
-    <col min="5" max="5" width="15.73046875" style="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.73046875" style="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="19"/>
+    <col min="2" max="2" width="10.7109375" style="19" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="76.42578125" style="19" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" style="19" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" style="19" customWidth="1"/>
-    <col min="8" max="9" width="9.1328125" style="19"/>
-    <col min="10" max="10" width="14.3984375" style="19" customWidth="1"/>
+    <col min="8" max="9" width="9.140625" style="19"/>
+    <col min="10" max="10" width="14.42578125" style="19" customWidth="1"/>
     <col min="11" max="11" width="10" style="19" customWidth="1"/>
-    <col min="12" max="13" width="9.1328125" style="19"/>
-    <col min="14" max="14" width="9.1328125" style="19" customWidth="1"/>
-    <col min="15" max="19" width="9.1328125" style="19"/>
-    <col min="20" max="20" width="16.3984375" style="19" customWidth="1"/>
-    <col min="21" max="22" width="9.1328125" style="19"/>
-    <col min="23" max="23" width="21.59765625" style="19" customWidth="1"/>
-    <col min="24" max="24" width="9.1328125" style="19"/>
-    <col min="25" max="25" width="18.59765625" style="19" customWidth="1"/>
-    <col min="26" max="26" width="39.73046875" style="19" customWidth="1"/>
-    <col min="27" max="16384" width="9.1328125" style="19"/>
+    <col min="12" max="13" width="9.140625" style="19"/>
+    <col min="14" max="14" width="9.140625" style="19" customWidth="1"/>
+    <col min="15" max="19" width="9.140625" style="19"/>
+    <col min="20" max="20" width="16.42578125" style="19" customWidth="1"/>
+    <col min="21" max="22" width="9.140625" style="19"/>
+    <col min="23" max="23" width="21.5703125" style="19" customWidth="1"/>
+    <col min="24" max="24" width="9.140625" style="19"/>
+    <col min="25" max="25" width="18.5703125" style="19" customWidth="1"/>
+    <col min="26" max="26" width="39.7109375" style="19" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:25" x14ac:dyDescent="0.45">
+    <row r="2" spans="3:25" ht="14.25" x14ac:dyDescent="0.45">
       <c r="G2" s="27" t="s">
         <v>73</v>
       </c>
@@ -7482,7 +7474,7 @@
       <c r="X4" s="8"/>
       <c r="Y4" s="68"/>
     </row>
-    <row r="5" spans="3:25" x14ac:dyDescent="0.45">
+    <row r="5" spans="3:25" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C5" s="19" t="s">
         <v>55</v>
       </c>
@@ -7524,7 +7516,7 @@
       <c r="X5" s="11"/>
       <c r="Y5" s="69"/>
     </row>
-    <row r="6" spans="3:25" x14ac:dyDescent="0.45">
+    <row r="6" spans="3:25" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C6" s="19" t="str">
         <f>C41</f>
         <v>RHTNGABN1</v>
@@ -7591,7 +7583,7 @@
       </c>
       <c r="Y6" s="66"/>
     </row>
-    <row r="7" spans="3:25" x14ac:dyDescent="0.45">
+    <row r="7" spans="3:25" ht="14.25" x14ac:dyDescent="0.45">
       <c r="G7" s="14">
         <v>2020</v>
       </c>
@@ -7633,7 +7625,7 @@
       </c>
       <c r="Y7" s="66"/>
     </row>
-    <row r="8" spans="3:25" x14ac:dyDescent="0.45">
+    <row r="8" spans="3:25" ht="14.25" x14ac:dyDescent="0.45">
       <c r="G8" s="14">
         <v>2030</v>
       </c>
@@ -7675,7 +7667,7 @@
       </c>
       <c r="Y8" s="66"/>
     </row>
-    <row r="9" spans="3:25" x14ac:dyDescent="0.45">
+    <row r="9" spans="3:25" ht="14.25" x14ac:dyDescent="0.45">
       <c r="G9" s="14">
         <v>2050</v>
       </c>
@@ -7717,7 +7709,7 @@
       </c>
       <c r="Y9" s="66"/>
     </row>
-    <row r="10" spans="3:25" x14ac:dyDescent="0.45">
+    <row r="10" spans="3:25" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C10" s="19" t="str">
         <f>C42</f>
         <v>RHTCPWBN1</v>
@@ -7784,7 +7776,7 @@
       </c>
       <c r="Y10" s="66"/>
     </row>
-    <row r="11" spans="3:25" x14ac:dyDescent="0.45">
+    <row r="11" spans="3:25" ht="14.25" x14ac:dyDescent="0.45">
       <c r="G11" s="16">
         <v>2020</v>
       </c>
@@ -7826,7 +7818,7 @@
       </c>
       <c r="Y11" s="66"/>
     </row>
-    <row r="12" spans="3:25" x14ac:dyDescent="0.45">
+    <row r="12" spans="3:25" ht="14.25" x14ac:dyDescent="0.45">
       <c r="G12" s="16">
         <v>2030</v>
       </c>
@@ -7868,7 +7860,7 @@
       </c>
       <c r="Y12" s="66"/>
     </row>
-    <row r="13" spans="3:25" x14ac:dyDescent="0.45">
+    <row r="13" spans="3:25" ht="14.25" x14ac:dyDescent="0.45">
       <c r="G13" s="16">
         <v>2050</v>
       </c>
@@ -7910,7 +7902,7 @@
       </c>
       <c r="Y13" s="66"/>
     </row>
-    <row r="14" spans="3:25" x14ac:dyDescent="0.45">
+    <row r="14" spans="3:25" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C14" s="19" t="str">
         <f>C43</f>
         <v>RHTELCXN1</v>
@@ -7977,7 +7969,7 @@
       </c>
       <c r="Y14" s="66"/>
     </row>
-    <row r="15" spans="3:25" x14ac:dyDescent="0.45">
+    <row r="15" spans="3:25" ht="14.25" x14ac:dyDescent="0.45">
       <c r="G15" s="16">
         <v>2020</v>
       </c>
@@ -8019,7 +8011,7 @@
       </c>
       <c r="Y15" s="66"/>
     </row>
-    <row r="16" spans="3:25" x14ac:dyDescent="0.45">
+    <row r="16" spans="3:25" ht="14.25" x14ac:dyDescent="0.45">
       <c r="G16" s="16">
         <v>2030</v>
       </c>
@@ -8061,7 +8053,7 @@
       </c>
       <c r="Y16" s="66"/>
     </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.45">
+    <row r="17" spans="3:25" ht="14.25" x14ac:dyDescent="0.45">
       <c r="G17" s="16">
         <v>2050</v>
       </c>
@@ -8103,7 +8095,7 @@
       </c>
       <c r="Y17" s="66"/>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.45">
+    <row r="18" spans="3:25" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C18" s="19" t="str">
         <f>C44</f>
         <v>RHTELCXN2</v>
@@ -8173,7 +8165,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.45">
+    <row r="19" spans="3:25" ht="14.25" x14ac:dyDescent="0.45">
       <c r="G19" s="16">
         <v>2020</v>
       </c>
@@ -8218,7 +8210,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.45">
+    <row r="20" spans="3:25" ht="14.25" x14ac:dyDescent="0.45">
       <c r="G20" s="16">
         <v>2030</v>
       </c>
@@ -8263,7 +8255,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.45">
+    <row r="21" spans="3:25" ht="14.25" x14ac:dyDescent="0.45">
       <c r="G21" s="16">
         <v>2050</v>
       </c>
@@ -8308,7 +8300,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="22" spans="3:25" s="72" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="3:25" s="72" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C22" s="90" t="str">
         <f>C46</f>
         <v>RCTACN1</v>
@@ -8318,10 +8310,10 @@
         <v>Residential cooling technology  - AC - new 1</v>
       </c>
       <c r="E22" s="72" t="s">
+        <v>83</v>
+      </c>
+      <c r="F22" s="72" t="s">
         <v>106</v>
-      </c>
-      <c r="F22" s="72" t="s">
-        <v>107</v>
       </c>
       <c r="G22" s="34">
         <v>2015</v>
@@ -8369,7 +8361,7 @@
       <c r="X22" s="34"/>
       <c r="Y22" s="95"/>
     </row>
-    <row r="23" spans="3:25" s="72" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="3:25" s="72" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="G23" s="34">
         <v>2020</v>
       </c>
@@ -8414,7 +8406,7 @@
       <c r="X23" s="34"/>
       <c r="Y23" s="95"/>
     </row>
-    <row r="24" spans="3:25" s="72" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="3:25" s="72" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="G24" s="34">
         <v>2030</v>
       </c>
@@ -8459,7 +8451,7 @@
       <c r="X24" s="34"/>
       <c r="Y24" s="95"/>
     </row>
-    <row r="25" spans="3:25" s="72" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="3:25" s="72" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="G25" s="34">
         <v>2050</v>
       </c>
@@ -8504,7 +8496,7 @@
       <c r="X25" s="34"/>
       <c r="Y25" s="95"/>
     </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.45">
+    <row r="26" spans="3:25" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C26" s="1" t="s">
         <v>81</v>
       </c>
@@ -8526,7 +8518,7 @@
       <c r="U26" s="37"/>
       <c r="X26" s="34"/>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.45">
+    <row r="27" spans="3:25" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C27" s="13" t="str">
         <f>C45</f>
         <v>RHTHCEBN1</v>
@@ -8539,7 +8531,7 @@
         <v>85</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G27" s="14">
         <v>2012</v>
@@ -8579,7 +8571,7 @@
       </c>
       <c r="X27" s="34"/>
     </row>
-    <row r="28" spans="3:25" s="74" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="3:25" s="74" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="G28" s="42"/>
       <c r="H28" s="42"/>
       <c r="I28" s="42"/>
@@ -8597,7 +8589,7 @@
       <c r="U28" s="37"/>
       <c r="X28" s="42"/>
     </row>
-    <row r="29" spans="3:25" s="74" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="3:25" s="74" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="G29" s="42"/>
       <c r="H29" s="42"/>
       <c r="I29" s="42"/>
@@ -8615,7 +8607,7 @@
       <c r="U29" s="37"/>
       <c r="X29" s="42"/>
     </row>
-    <row r="30" spans="3:25" s="74" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="3:25" s="74" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="G30" s="42"/>
       <c r="H30" s="42"/>
       <c r="I30" s="42"/>
@@ -8633,7 +8625,7 @@
       <c r="U30" s="37"/>
       <c r="X30" s="42"/>
     </row>
-    <row r="31" spans="3:25" s="74" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="3:25" s="74" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="F31" s="75"/>
       <c r="G31" s="46"/>
       <c r="K31" s="75"/>
@@ -8649,7 +8641,7 @@
       <c r="U31" s="37"/>
       <c r="X31" s="42"/>
     </row>
-    <row r="32" spans="3:25" s="74" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="3:25" s="74" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="G32" s="75"/>
       <c r="H32" s="46"/>
       <c r="L32" s="75"/>
@@ -8665,7 +8657,7 @@
       <c r="V32" s="37"/>
       <c r="Y32" s="42"/>
     </row>
-    <row r="33" spans="1:25" s="74" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:25" s="74" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="H33" s="42"/>
       <c r="I33" s="42"/>
       <c r="J33" s="42"/>
@@ -8683,7 +8675,7 @@
       <c r="V33" s="37"/>
       <c r="Y33" s="42"/>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:25" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C34" s="24"/>
       <c r="D34" s="13"/>
       <c r="E34" s="13"/>
@@ -8705,7 +8697,7 @@
       <c r="V34" s="37"/>
       <c r="Y34" s="34"/>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:25" ht="14.25" x14ac:dyDescent="0.45">
       <c r="G35" s="19" t="s">
         <v>84</v>
       </c>
@@ -8726,7 +8718,7 @@
       <c r="V35" s="37"/>
       <c r="Y35" s="34"/>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:25" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A38" s="23"/>
       <c r="B38" s="51" t="s">
         <v>72</v>
@@ -8739,7 +8731,7 @@
       <c r="H38" s="52"/>
       <c r="I38" s="52"/>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:25" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A39" s="23"/>
       <c r="B39" s="53" t="s">
         <v>71</v>
@@ -8793,7 +8785,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:25" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A41" s="23"/>
       <c r="B41" s="80" t="s">
         <v>56</v>
@@ -8819,7 +8811,7 @@
       </c>
       <c r="K41" s="88"/>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:25" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A42" s="23"/>
       <c r="B42" s="80"/>
       <c r="C42" s="78" t="s">
@@ -8843,7 +8835,7 @@
       </c>
       <c r="K42" s="89"/>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" s="23"/>
       <c r="B43" s="80"/>
       <c r="C43" s="78" t="s">
@@ -8867,7 +8859,7 @@
       </c>
       <c r="K43" s="10"/>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="23"/>
       <c r="B44" s="80"/>
       <c r="C44" s="78" t="s">
@@ -8891,7 +8883,7 @@
       </c>
       <c r="K44" s="87"/>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="23"/>
       <c r="B45" s="80"/>
       <c r="C45" s="80" t="s">
@@ -8915,7 +8907,7 @@
       </c>
       <c r="K45" s="87"/>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="23"/>
       <c r="B46" s="80"/>
       <c r="C46" s="78" t="s">
@@ -8939,13 +8931,13 @@
       </c>
       <c r="K46" s="87"/>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" s="23"/>
       <c r="B47" s="80"/>
       <c r="K47" s="87"/>
       <c r="L47" s="25"/>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" s="23"/>
       <c r="B48" s="55"/>
       <c r="C48" s="55"/>
@@ -8958,7 +8950,7 @@
       <c r="K48" s="87"/>
       <c r="L48" s="25"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="23"/>
       <c r="B49" s="55"/>
       <c r="C49" s="55"/>
@@ -8971,7 +8963,7 @@
       <c r="K49" s="87"/>
       <c r="L49" s="25"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="25"/>
       <c r="B50" s="57"/>
       <c r="C50" s="55"/>
@@ -8983,7 +8975,7 @@
       <c r="I50" s="52"/>
       <c r="K50" s="87"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="25"/>
       <c r="B51" s="57"/>
       <c r="C51" s="55"/>
@@ -8995,7 +8987,7 @@
       <c r="I51" s="52"/>
       <c r="K51" s="89"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="23"/>
       <c r="B52" s="55"/>
       <c r="C52" s="55"/>
@@ -9007,7 +8999,7 @@
       <c r="I52" s="52"/>
       <c r="K52" s="89"/>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="23"/>
       <c r="B53" s="55"/>
       <c r="C53" s="55"/>
@@ -9019,7 +9011,7 @@
       <c r="I53" s="52"/>
       <c r="K53" s="10"/>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="23"/>
       <c r="B54" s="24"/>
       <c r="C54" s="23"/>
@@ -9031,7 +9023,7 @@
       <c r="I54" s="26"/>
       <c r="K54" s="87"/>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="23"/>
       <c r="B55" s="24"/>
       <c r="C55" s="23"/>
@@ -9043,16 +9035,16 @@
       <c r="I55" s="26"/>
       <c r="K55" s="87"/>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K56" s="87"/>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K57" s="87"/>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K58" s="87"/>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="58"/>
       <c r="B59" s="58"/>
       <c r="C59" s="59"/>
@@ -9064,7 +9056,7 @@
       <c r="I59" s="59"/>
       <c r="K59" s="87"/>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="53" t="s">
         <v>52</v>
       </c>
@@ -9093,7 +9085,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="31.9" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="60" t="s">
         <v>44</v>
       </c>
@@ -9122,7 +9114,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="62" t="s">
         <v>35</v>
       </c>
@@ -9141,7 +9133,7 @@
       <c r="H62" s="55"/>
       <c r="I62" s="55"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="59"/>
       <c r="B63" s="59"/>
       <c r="C63" s="62" t="s">
@@ -9158,7 +9150,7 @@
       <c r="H63" s="59"/>
       <c r="I63" s="59"/>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="59"/>
       <c r="B64" s="59"/>
       <c r="C64" s="62" t="s">
@@ -9175,7 +9167,7 @@
       <c r="H64" s="59"/>
       <c r="I64" s="59"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="59"/>
       <c r="B65" s="59"/>
       <c r="C65" s="62" t="s">
@@ -9192,7 +9184,7 @@
       <c r="H65" s="59"/>
       <c r="I65" s="59"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="59"/>
       <c r="B66" s="59"/>
       <c r="C66" s="62" t="s">
@@ -9209,7 +9201,7 @@
       <c r="H66" s="59"/>
       <c r="I66" s="59"/>
     </row>
-    <row r="84" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="84" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -9224,28 +9216,28 @@
   <dimension ref="A2:V63"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.1328125" style="19"/>
+    <col min="1" max="2" width="9.140625" style="19"/>
     <col min="3" max="3" width="17" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="106.3984375" style="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.73046875" style="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.1328125" style="19"/>
-    <col min="7" max="7" width="10.59765625" style="19" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9.1328125" style="19"/>
-    <col min="10" max="10" width="17.3984375" style="19" customWidth="1"/>
+    <col min="4" max="4" width="106.42578125" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="19"/>
+    <col min="7" max="7" width="10.5703125" style="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.140625" style="19"/>
+    <col min="10" max="10" width="17.42578125" style="19" customWidth="1"/>
     <col min="11" max="11" width="10" style="19" customWidth="1"/>
-    <col min="12" max="12" width="13.86328125" style="19" customWidth="1"/>
-    <col min="13" max="13" width="10.59765625" style="19" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="9.1328125" style="19"/>
-    <col min="16" max="16" width="9.59765625" style="19" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.1328125" style="19"/>
+    <col min="12" max="12" width="13.85546875" style="19" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" style="19" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="9.140625" style="19"/>
+    <col min="16" max="16" width="9.5703125" style="19" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:22" x14ac:dyDescent="0.45">
+    <row r="2" spans="3:22" ht="14.25" x14ac:dyDescent="0.45">
       <c r="G2" s="27" t="s">
         <v>73</v>
       </c>
@@ -9333,7 +9325,7 @@
       <c r="T4" s="7"/>
       <c r="U4" s="7"/>
     </row>
-    <row r="5" spans="3:22" x14ac:dyDescent="0.45">
+    <row r="5" spans="3:22" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C5" s="19" t="s">
         <v>55</v>
       </c>
@@ -9373,7 +9365,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="3:22" x14ac:dyDescent="0.45">
+    <row r="6" spans="3:22" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C6" s="19" t="str">
         <f>C33</f>
         <v>CHTELCXN1</v>
@@ -9383,10 +9375,10 @@
         <v>Commercial heating technology  - direct eletrical heating - new 1</v>
       </c>
       <c r="E6" s="72" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F6" s="87" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="G6" s="16">
         <v>2015</v>
@@ -9432,7 +9424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="3:22" x14ac:dyDescent="0.45">
+    <row r="7" spans="3:22" ht="14.25" x14ac:dyDescent="0.45">
       <c r="G7" s="16">
         <v>2020</v>
       </c>
@@ -9469,7 +9461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="3:22" x14ac:dyDescent="0.45">
+    <row r="8" spans="3:22" ht="14.25" x14ac:dyDescent="0.45">
       <c r="G8" s="16">
         <v>2030</v>
       </c>
@@ -9506,7 +9498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="3:22" x14ac:dyDescent="0.45">
+    <row r="9" spans="3:22" ht="14.25" x14ac:dyDescent="0.45">
       <c r="G9" s="16">
         <v>2050</v>
       </c>
@@ -9543,7 +9535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="3:22" x14ac:dyDescent="0.45">
+    <row r="10" spans="3:22" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C10" s="19" t="str">
         <f>C34</f>
         <v>CHTELCXN2</v>
@@ -9553,10 +9545,10 @@
         <v>Commercial heating technology  - Heat pump, air-to-air - new 2</v>
       </c>
       <c r="E10" s="72" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F10" s="87" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="G10" s="16">
         <v>2015</v>
@@ -9602,7 +9594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="3:22" x14ac:dyDescent="0.45">
+    <row r="11" spans="3:22" ht="14.25" x14ac:dyDescent="0.45">
       <c r="G11" s="16">
         <v>2020</v>
       </c>
@@ -9639,7 +9631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="3:22" x14ac:dyDescent="0.45">
+    <row r="12" spans="3:22" ht="14.25" x14ac:dyDescent="0.45">
       <c r="G12" s="16">
         <v>2030</v>
       </c>
@@ -9676,7 +9668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="3:22" x14ac:dyDescent="0.45">
+    <row r="13" spans="3:22" ht="14.25" x14ac:dyDescent="0.45">
       <c r="G13" s="16">
         <v>2050</v>
       </c>
@@ -9713,7 +9705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="3:22" s="72" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="3:22" s="72" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C14" s="90" t="str">
         <f>C36</f>
         <v>CCTACN1</v>
@@ -9723,10 +9715,10 @@
         <v>Commercial cooling technology  - AC - new 1</v>
       </c>
       <c r="E14" s="72" t="s">
+        <v>111</v>
+      </c>
+      <c r="F14" s="87" t="s">
         <v>112</v>
-      </c>
-      <c r="F14" s="87" t="s">
-        <v>114</v>
       </c>
       <c r="G14" s="34">
         <v>2015</v>
@@ -9772,7 +9764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="3:22" s="72" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="3:22" s="72" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="G15" s="34">
         <v>2020</v>
       </c>
@@ -9815,7 +9807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="3:22" s="72" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="3:22" s="72" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="G16" s="34">
         <v>2030</v>
       </c>
@@ -9858,7 +9850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:22" s="72" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:22" s="72" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="G17" s="34">
         <v>2050</v>
       </c>
@@ -9901,7 +9893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:22" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C18" s="1" t="s">
         <v>81</v>
       </c>
@@ -9922,7 +9914,7 @@
       <c r="T18" s="47"/>
       <c r="U18" s="47"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:22" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C19" s="73" t="str">
         <f>C35</f>
         <v>CHTHCEBN1</v>
@@ -9935,7 +9927,7 @@
         <v>92</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G19" s="14">
         <v>2012</v>
@@ -9974,7 +9966,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:22" s="74" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:22" s="74" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C20" s="73"/>
       <c r="D20" s="73"/>
       <c r="E20" s="49"/>
@@ -9989,7 +9981,7 @@
       <c r="N20" s="46"/>
       <c r="O20" s="76"/>
     </row>
-    <row r="21" spans="1:22" s="74" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:22" s="74" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C21" s="73"/>
       <c r="D21" s="73"/>
       <c r="E21" s="49"/>
@@ -10004,7 +9996,7 @@
       <c r="N21" s="46"/>
       <c r="O21" s="76"/>
     </row>
-    <row r="22" spans="1:22" s="74" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:22" s="74" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C22" s="73"/>
       <c r="D22" s="73"/>
       <c r="J22" s="42"/>
@@ -10012,7 +10004,7 @@
       <c r="L22" s="75"/>
       <c r="M22" s="75"/>
     </row>
-    <row r="23" spans="1:22" s="74" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:22" s="74" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C23" s="73"/>
       <c r="D23" s="73"/>
       <c r="J23" s="42"/>
@@ -10020,7 +10012,7 @@
       <c r="L23" s="75"/>
       <c r="M23" s="75"/>
     </row>
-    <row r="24" spans="1:22" s="74" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:22" s="74" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C24" s="73"/>
       <c r="D24" s="73"/>
       <c r="E24" s="75"/>
@@ -10031,7 +10023,7 @@
       <c r="L24" s="75"/>
       <c r="M24" s="75"/>
     </row>
-    <row r="25" spans="1:22" s="74" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:22" s="74" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C25" s="77"/>
       <c r="D25" s="73"/>
       <c r="E25" s="75"/>
@@ -10042,7 +10034,7 @@
       <c r="L25" s="75"/>
       <c r="M25" s="75"/>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:22" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A30" s="23"/>
       <c r="B30" s="51" t="s">
         <v>72</v>
@@ -10055,7 +10047,7 @@
       <c r="H30" s="52"/>
       <c r="I30" s="52"/>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:22" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A31" s="23"/>
       <c r="B31" s="53" t="s">
         <v>71</v>
@@ -10082,7 +10074,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:22" ht="31.9" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:22" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="23"/>
       <c r="B32" s="54" t="s">
         <v>64</v>
@@ -10109,16 +10101,16 @@
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="23"/>
       <c r="B33" s="80" t="s">
         <v>56</v>
       </c>
       <c r="C33" s="78" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D33" s="78" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E33" s="80" t="s">
         <v>54</v>
@@ -10134,14 +10126,14 @@
         <v>74</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="23"/>
       <c r="B34" s="80"/>
       <c r="C34" s="78" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D34" s="78" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E34" s="80" t="s">
         <v>54</v>
@@ -10157,14 +10149,14 @@
         <v>74</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="23"/>
       <c r="B35" s="80"/>
       <c r="C35" s="80" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D35" s="80" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E35" s="80" t="s">
         <v>54</v>
@@ -10180,14 +10172,14 @@
         <v>74</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="23"/>
       <c r="B36" s="80"/>
       <c r="C36" s="78" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D36" s="80" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E36" s="80" t="s">
         <v>54</v>
@@ -10203,11 +10195,11 @@
         <v>74</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="23"/>
       <c r="B37" s="80"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="23"/>
       <c r="B38" s="80"/>
       <c r="C38" s="78"/>
@@ -10218,13 +10210,13 @@
       <c r="H38" s="79"/>
       <c r="I38" s="79"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="23"/>
       <c r="B39" s="80"/>
       <c r="L39" s="25"/>
       <c r="N39" s="28"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="23"/>
       <c r="B40" s="55"/>
       <c r="C40" s="55"/>
@@ -10237,7 +10229,7 @@
       <c r="L40" s="25"/>
       <c r="N40" s="28"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="23"/>
       <c r="B41" s="55"/>
       <c r="C41" s="55"/>
@@ -10250,7 +10242,7 @@
       <c r="L41" s="25"/>
       <c r="N41" s="28"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="23"/>
       <c r="B42" s="55"/>
       <c r="C42" s="86"/>
@@ -10262,7 +10254,7 @@
       <c r="I42" s="52"/>
       <c r="N42" s="28"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="23"/>
       <c r="B43" s="55"/>
       <c r="C43" s="86"/>
@@ -10274,7 +10266,7 @@
       <c r="I43" s="52"/>
       <c r="N43" s="28"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="23"/>
       <c r="B44" s="55"/>
       <c r="C44" s="55"/>
@@ -10286,7 +10278,7 @@
       <c r="I44" s="52"/>
       <c r="N44" s="28"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="23"/>
       <c r="B45" s="55"/>
       <c r="C45" s="55"/>
@@ -10298,7 +10290,7 @@
       <c r="I45" s="52"/>
       <c r="N45" s="28"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="23"/>
       <c r="B46" s="24"/>
       <c r="C46" s="23"/>
@@ -10310,7 +10302,7 @@
       <c r="I46" s="26"/>
       <c r="N46" s="28"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="23"/>
       <c r="B47" s="24"/>
       <c r="C47" s="23"/>
@@ -10322,7 +10314,7 @@
       <c r="I47" s="26"/>
       <c r="N47" s="28"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="58"/>
       <c r="B51" s="58"/>
       <c r="C51" s="59"/>
@@ -10333,7 +10325,7 @@
       <c r="H51" s="59"/>
       <c r="I51" s="59"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="53" t="s">
         <v>52</v>
       </c>
@@ -10362,7 +10354,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="31.9" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="60" t="s">
         <v>44</v>
       </c>
@@ -10391,7 +10383,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="62" t="s">
         <v>35</v>
       </c>
@@ -10410,7 +10402,7 @@
       <c r="H54" s="55"/>
       <c r="I54" s="55"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="59"/>
       <c r="B55" s="59"/>
       <c r="C55" s="62" t="s">
@@ -10427,7 +10419,7 @@
       <c r="H55" s="59"/>
       <c r="I55" s="59"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="59"/>
       <c r="B56" s="59"/>
       <c r="C56" s="62" t="s">
@@ -10444,7 +10436,7 @@
       <c r="H56" s="59"/>
       <c r="I56" s="59"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="59"/>
       <c r="B57" s="59"/>
       <c r="C57" s="62" t="s">
@@ -10461,7 +10453,7 @@
       <c r="H57" s="59"/>
       <c r="I57" s="59"/>
     </row>
-    <row r="58" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="59"/>
       <c r="B58" s="59"/>
       <c r="C58" s="62" t="s">
@@ -10478,10 +10470,10 @@
       <c r="H58" s="59"/>
       <c r="I58" s="59"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C62" s="40"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C63" s="40"/>
     </row>
   </sheetData>
@@ -10502,25 +10494,25 @@
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.1328125" style="72"/>
+    <col min="1" max="2" width="9.140625" style="72"/>
     <col min="3" max="3" width="17" style="72" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="106.3984375" style="72" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.73046875" style="72" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.1328125" style="72"/>
-    <col min="7" max="7" width="10.59765625" style="72" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9.1328125" style="72"/>
-    <col min="10" max="10" width="17.3984375" style="72" customWidth="1"/>
+    <col min="4" max="4" width="106.42578125" style="72" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" style="72" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="72"/>
+    <col min="7" max="7" width="10.5703125" style="72" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.140625" style="72"/>
+    <col min="10" max="10" width="17.42578125" style="72" customWidth="1"/>
     <col min="11" max="11" width="10" style="72" customWidth="1"/>
-    <col min="12" max="12" width="13.86328125" style="72" customWidth="1"/>
-    <col min="13" max="13" width="10.59765625" style="72" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="9.1328125" style="72"/>
-    <col min="16" max="16" width="9.59765625" style="72" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.1328125" style="72"/>
+    <col min="12" max="12" width="13.85546875" style="72" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" style="72" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="9.140625" style="72"/>
+    <col min="16" max="16" width="9.5703125" style="72" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="72"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:21" ht="14.25" x14ac:dyDescent="0.45">
       <c r="G2" s="27" t="s">
         <v>73</v>
       </c>
@@ -10605,7 +10597,7 @@
       <c r="T4" s="7"/>
       <c r="U4" s="7"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:21" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C5" s="72" t="s">
         <v>55</v>
       </c>
@@ -10645,7 +10637,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:21" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C6" s="72" t="s">
         <v>89</v>
       </c>
@@ -10702,7 +10694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:21" ht="14.25" x14ac:dyDescent="0.45">
       <c r="G7" s="14">
         <v>2020</v>
       </c>
@@ -10739,7 +10731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:21" ht="14.25" x14ac:dyDescent="0.45">
       <c r="E8" s="28"/>
       <c r="F8" s="28"/>
       <c r="G8" s="14">
@@ -10778,7 +10770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:21" ht="14.25" x14ac:dyDescent="0.45">
       <c r="G9" s="14">
         <v>2050</v>
       </c>
@@ -10815,7 +10807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:21" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A12" s="23"/>
       <c r="B12" s="51" t="s">
         <v>72</v>
@@ -10828,7 +10820,7 @@
       <c r="H12" s="52"/>
       <c r="I12" s="52"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:21" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A13" s="23"/>
       <c r="B13" s="53" t="s">
         <v>71</v>
@@ -10882,7 +10874,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:21" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A15" s="23"/>
       <c r="B15" s="80" t="s">
         <v>56</v>
@@ -10907,7 +10899,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:21" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A16" s="23"/>
       <c r="B16" s="80"/>
       <c r="C16" s="78"/>
@@ -10918,7 +10910,7 @@
       <c r="H16" s="79"/>
       <c r="I16" s="79"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A17" s="23"/>
       <c r="B17" s="80"/>
       <c r="C17" s="78"/>
@@ -10929,7 +10921,7 @@
       <c r="H17" s="79"/>
       <c r="I17" s="79"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A18" s="23"/>
       <c r="B18" s="80"/>
       <c r="C18" s="78"/>
@@ -10940,7 +10932,7 @@
       <c r="H18" s="79"/>
       <c r="I18" s="79"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A19" s="23"/>
       <c r="B19" s="80"/>
       <c r="C19" s="78"/>
@@ -10951,7 +10943,7 @@
       <c r="H19" s="79"/>
       <c r="I19" s="79"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A20" s="23"/>
       <c r="B20" s="80"/>
       <c r="C20" s="80"/>
@@ -10965,7 +10957,7 @@
       <c r="L20" s="25"/>
       <c r="N20" s="28"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A21" s="23"/>
       <c r="B21" s="55"/>
       <c r="C21" s="55"/>
@@ -10979,7 +10971,7 @@
       <c r="L21" s="25"/>
       <c r="N21" s="28"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A22" s="23"/>
       <c r="B22" s="55"/>
       <c r="C22" s="55"/>
@@ -10993,7 +10985,7 @@
       <c r="L22" s="25"/>
       <c r="N22" s="28"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A23" s="23"/>
       <c r="B23" s="55"/>
       <c r="C23" s="86"/>
@@ -11005,7 +10997,7 @@
       <c r="I23" s="52"/>
       <c r="N23" s="28"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A24" s="23"/>
       <c r="B24" s="55"/>
       <c r="C24" s="86"/>
@@ -11017,7 +11009,7 @@
       <c r="I24" s="52"/>
       <c r="N24" s="28"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A25" s="23"/>
       <c r="B25" s="55"/>
       <c r="C25" s="55"/>
@@ -11029,7 +11021,7 @@
       <c r="I25" s="52"/>
       <c r="N25" s="28"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A26" s="23"/>
       <c r="B26" s="55"/>
       <c r="C26" s="55"/>
@@ -11041,7 +11033,7 @@
       <c r="I26" s="52"/>
       <c r="N26" s="28"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A27" s="23"/>
       <c r="B27" s="24"/>
       <c r="C27" s="23"/>
@@ -11053,7 +11045,7 @@
       <c r="I27" s="26"/>
       <c r="N27" s="28"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A28" s="23"/>
       <c r="B28" s="24"/>
       <c r="C28" s="23"/>
@@ -11065,7 +11057,7 @@
       <c r="I28" s="26"/>
       <c r="N28" s="28"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A32" s="58"/>
       <c r="B32" s="58"/>
       <c r="C32" s="59"/>
@@ -11076,7 +11068,7 @@
       <c r="H32" s="59"/>
       <c r="I32" s="59"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="53" t="s">
         <v>52</v>
       </c>
@@ -11105,7 +11097,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="31.9" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="60" t="s">
         <v>44</v>
       </c>
@@ -11134,7 +11126,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="62" t="s">
         <v>35</v>
       </c>
@@ -11153,7 +11145,7 @@
       <c r="H35" s="55"/>
       <c r="I35" s="55"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="59"/>
       <c r="B36" s="59"/>
       <c r="C36" s="62" t="s">
@@ -11170,7 +11162,7 @@
       <c r="H36" s="59"/>
       <c r="I36" s="59"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="59"/>
       <c r="B37" s="59"/>
       <c r="C37" s="62" t="s">
@@ -11187,7 +11179,7 @@
       <c r="H37" s="59"/>
       <c r="I37" s="59"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="59"/>
       <c r="B38" s="59"/>
       <c r="C38" s="62" t="s">
@@ -11204,7 +11196,7 @@
       <c r="H38" s="59"/>
       <c r="I38" s="59"/>
     </row>
-    <row r="39" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="59"/>
       <c r="B39" s="59"/>
       <c r="C39" s="62" t="s">
@@ -11221,10 +11213,10 @@
       <c r="H39" s="59"/>
       <c r="I39" s="59"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C43" s="40"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C44" s="40"/>
     </row>
   </sheetData>
@@ -11234,26 +11226,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Phase xmlns="http://schemas.microsoft.com/sharepoint/v3/fields">
-      <Value>Contracted</Value>
-    </Phase>
-    <PortalAuthor xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="File" ma:contentTypeID="0x0101000DD098BE9899426A8B0406C5EF9CA50A0088BDD742C1DD304A87D731357DBB47E2" ma:contentTypeVersion="1" ma:contentTypeDescription="This is the base type for all file formats" ma:contentTypeScope="" ma:versionID="7ff74889935fc138bd7541b24877147a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="http://schemas.microsoft.com/sharepoint/v3/fields" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="46dc3d67e2c7a72f7fde2a6a9b1bcac1" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3/fields"/>
@@ -11335,31 +11307,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE784753-1928-4D6F-83BC-1FAE29BA76C6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5848600-2E8A-4836-874B-3D5E5B443EC6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Phase xmlns="http://schemas.microsoft.com/sharepoint/v3/fields">
+      <Value>Contracted</Value>
+    </Phase>
+    <PortalAuthor xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5D6C50A-3B64-4A50-9420-90562322C579}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11374,4 +11342,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5848600-2E8A-4836-874B-3D5E5B443EC6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE784753-1928-4D6F-83BC-1FAE29BA76C6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/SubRES_TMPL/SubRes_RCI_Techs.xlsx
+++ b/SubRES_TMPL/SubRes_RCI_Techs.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="156">
   <si>
     <t>YEAR</t>
   </si>
@@ -71,9 +71,6 @@
     <t>EFF</t>
   </si>
   <si>
-    <t>Input~ELCC</t>
-  </si>
-  <si>
     <t>LIFE</t>
   </si>
   <si>
@@ -299,9 +296,6 @@
     <t>Mkr/PJ</t>
   </si>
   <si>
-    <t>EFF heat pumps moved to Trans file</t>
-  </si>
-  <si>
     <t>RESWPE</t>
   </si>
   <si>
@@ -341,48 +335,30 @@
     <t>COMDH</t>
   </si>
   <si>
-    <t>RESHB</t>
-  </si>
-  <si>
     <t>RHTNGABN1</t>
   </si>
   <si>
-    <t>RHTCPWBN1</t>
-  </si>
-  <si>
     <t>RHTELCXN1</t>
   </si>
   <si>
     <t>RHTELCXN2</t>
   </si>
   <si>
-    <t>RHTHCEBN1</t>
-  </si>
-  <si>
     <t>Residential heating technology  - natural gas boiler - new 1</t>
   </si>
   <si>
-    <t>Residential heating technology  - biomass boiler automatic stoking - new 1</t>
-  </si>
-  <si>
     <t>Residential heating technology  - direct eletrical heating - new 1</t>
   </si>
   <si>
     <t>Residential heating technology  - Heat pump, air-to-air - new 2</t>
   </si>
   <si>
-    <t>Residential heating technology  - district heat - new 1</t>
-  </si>
-  <si>
     <t>RCTACN1</t>
   </si>
   <si>
     <t>Residential cooling technology  - AC - new 1</t>
   </si>
   <si>
-    <t>RESC</t>
-  </si>
-  <si>
     <t>CHTELCXN1</t>
   </si>
   <si>
@@ -416,10 +392,142 @@
     <t>Commercial cooling technology  - AC - new 1</t>
   </si>
   <si>
-    <t>RESHX</t>
-  </si>
-  <si>
     <t>COMHB</t>
+  </si>
+  <si>
+    <t>ELC</t>
+  </si>
+  <si>
+    <t>RESHDBX</t>
+  </si>
+  <si>
+    <t>RESHMBX</t>
+  </si>
+  <si>
+    <t>RESHBDB</t>
+  </si>
+  <si>
+    <t>RESHBMB</t>
+  </si>
+  <si>
+    <t>Heating Electricity COM</t>
+  </si>
+  <si>
+    <t>COMELCA</t>
+  </si>
+  <si>
+    <t>Commercial heat from heat exch. for commercial buildings</t>
+  </si>
+  <si>
+    <t>District Heat COM</t>
+  </si>
+  <si>
+    <t>Commercial heat from boilers</t>
+  </si>
+  <si>
+    <t>Commercial cold</t>
+  </si>
+  <si>
+    <t>INDGL</t>
+  </si>
+  <si>
+    <t>RESHBDB, RESHBMB</t>
+  </si>
+  <si>
+    <t>RHTCPWMBN2</t>
+  </si>
+  <si>
+    <t>RHTCPWDBN1</t>
+  </si>
+  <si>
+    <t>Residential heating technology detached build. - biomass boiler automatic stoking - new 1</t>
+  </si>
+  <si>
+    <t>Residential heating technology multistorey build. - biomass boiler automatic stoking - new 1</t>
+  </si>
+  <si>
+    <t>RESCDB, RESCMB</t>
+  </si>
+  <si>
+    <t>RHTDBDHN1</t>
+  </si>
+  <si>
+    <t>RHTMBDHN1</t>
+  </si>
+  <si>
+    <t>Residential heating technology detached buildings - district heat - new 1</t>
+  </si>
+  <si>
+    <t>Residential heating technology multistorey buildings - district heat - new 1</t>
+  </si>
+  <si>
+    <t>COMSOx</t>
+  </si>
+  <si>
+    <t>COMNOx</t>
+  </si>
+  <si>
+    <t>COMCH4</t>
+  </si>
+  <si>
+    <t>COMN2O</t>
+  </si>
+  <si>
+    <t>COMPM</t>
+  </si>
+  <si>
+    <t>Commercial heating  heating technology - SOx emission</t>
+  </si>
+  <si>
+    <t>Commercial heating  heating technology - NOx emission</t>
+  </si>
+  <si>
+    <t>Commercial heating  heating technology - CH4 emission</t>
+  </si>
+  <si>
+    <t>Commercial heating  heating technology - NO2 emission</t>
+  </si>
+  <si>
+    <t>Commercial heating  heating technology - Particle emission</t>
+  </si>
+  <si>
+    <t>Industrial heating  heating technology - SOx emission</t>
+  </si>
+  <si>
+    <t>Industrial heating  heating technology - NOx emission</t>
+  </si>
+  <si>
+    <t>Industrial heating  heating technology - CH4 emission</t>
+  </si>
+  <si>
+    <t>Industrial heating  heating technology - NO2 emission</t>
+  </si>
+  <si>
+    <t>Industrial heating  heating technology - Particle emission</t>
+  </si>
+  <si>
+    <t>INDSOx</t>
+  </si>
+  <si>
+    <t>INDNOx</t>
+  </si>
+  <si>
+    <t>INDCH4</t>
+  </si>
+  <si>
+    <t>INDN2O</t>
+  </si>
+  <si>
+    <t>INDPM</t>
+  </si>
+  <si>
+    <t>IGLTN1</t>
+  </si>
+  <si>
+    <t>Industry GlassTechnology - New</t>
+  </si>
+  <si>
+    <t>Industry Glass Technology - New</t>
   </si>
 </sst>
 </file>
@@ -757,7 +865,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="65">
+  <fills count="66">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1108,6 +1216,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="21">
     <border>
@@ -4067,7 +4181,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="32" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -4152,9 +4266,6 @@
     <xf numFmtId="167" fontId="41" fillId="0" borderId="0" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4218,19 +4329,6 @@
     </xf>
     <xf numFmtId="172" fontId="36" fillId="0" borderId="0" xfId="48" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="172" fontId="8" fillId="0" borderId="0" xfId="865" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4260,7 +4358,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="862" applyFill="1"/>
     <xf numFmtId="172" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFill="1"/>
@@ -4273,10 +4370,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="65" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="65" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2579">
     <cellStyle name="20 % - Markeringsfarve1" xfId="1891"/>
@@ -7348,10 +7450,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A2:Y84"/>
+  <dimension ref="A2:W88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M38" sqref="M38:W60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7368,33 +7470,34 @@
     <col min="11" max="11" width="10" style="19" customWidth="1"/>
     <col min="12" max="13" width="9.140625" style="19"/>
     <col min="14" max="14" width="9.140625" style="19" customWidth="1"/>
-    <col min="15" max="19" width="9.140625" style="19"/>
+    <col min="15" max="15" width="9.140625" style="19"/>
+    <col min="16" max="16" width="11.42578125" style="19" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="51.5703125" style="19" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="9.140625" style="19"/>
     <col min="20" max="20" width="16.42578125" style="19" customWidth="1"/>
     <col min="21" max="22" width="9.140625" style="19"/>
     <col min="23" max="23" width="21.5703125" style="19" customWidth="1"/>
-    <col min="24" max="24" width="9.140625" style="19"/>
-    <col min="25" max="25" width="18.5703125" style="19" customWidth="1"/>
-    <col min="26" max="26" width="39.7109375" style="19" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="19"/>
+    <col min="24" max="24" width="39.7109375" style="19" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:25" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="2" spans="3:22" x14ac:dyDescent="0.25">
       <c r="G2" s="27" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="3:25" ht="28.5" x14ac:dyDescent="0.45">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="3:22" ht="25.5" x14ac:dyDescent="0.25">
       <c r="C3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="20" t="s">
         <v>22</v>
-      </c>
-      <c r="F3" s="20" t="s">
-        <v>23</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>0</v>
@@ -7406,52 +7509,46 @@
         <v>2</v>
       </c>
       <c r="J3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="L3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="M3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="N3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="O3" s="6" t="s">
         <v>8</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>9</v>
       </c>
       <c r="P3" s="6"/>
       <c r="Q3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="R3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="R3" s="6" t="s">
+      <c r="S3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="S3" s="6" t="s">
+      <c r="T3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="T3" s="6" t="s">
+      <c r="U3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="U3" s="6" t="s">
-        <v>14</v>
-      </c>
       <c r="V3" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="X3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y3" s="67" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="3:25" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
@@ -7471,65 +7568,61 @@
       <c r="S4" s="7"/>
       <c r="T4" s="7"/>
       <c r="U4" s="7"/>
-      <c r="X4" s="8"/>
-      <c r="Y4" s="68"/>
-    </row>
-    <row r="5" spans="3:25" ht="14.25" x14ac:dyDescent="0.45">
+    </row>
+    <row r="5" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C5" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
       <c r="K5" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="L5" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="L5" s="11" t="s">
+      <c r="M5" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="M5" s="11" t="s">
-        <v>78</v>
-      </c>
       <c r="N5" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O5" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P5" s="11"/>
       <c r="Q5" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R5" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S5" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="T5" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U5" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="X5" s="11"/>
-      <c r="Y5" s="69"/>
-    </row>
-    <row r="6" spans="3:25" ht="14.25" x14ac:dyDescent="0.45">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C6" s="19" t="str">
-        <f>C41</f>
+        <f>C45</f>
         <v>RHTNGABN1</v>
       </c>
       <c r="D6" s="19" t="str">
-        <f>D41</f>
+        <f>D45</f>
         <v>Residential heating technology  - natural gas boiler - new 1</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="F6" s="87" t="s">
-        <v>93</v>
+        <v>89</v>
+      </c>
+      <c r="F6" s="81" t="s">
+        <v>123</v>
       </c>
       <c r="G6" s="14">
         <v>2015</v>
@@ -7537,10 +7630,10 @@
       <c r="H6" s="14">
         <v>2015</v>
       </c>
-      <c r="I6" s="38">
+      <c r="I6" s="37">
         <v>1.02</v>
       </c>
-      <c r="J6" s="38">
+      <c r="J6" s="37">
         <v>22</v>
       </c>
       <c r="K6" s="2">
@@ -7575,23 +7668,18 @@
         <v>0</v>
       </c>
       <c r="V6" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="X6" s="14" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Y6" s="66"/>
-    </row>
-    <row r="7" spans="3:25" ht="14.25" x14ac:dyDescent="0.45">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="3:22" x14ac:dyDescent="0.25">
       <c r="G7" s="14">
         <v>2020</v>
       </c>
       <c r="H7" s="14"/>
-      <c r="I7" s="38">
+      <c r="I7" s="37">
         <v>1.02</v>
       </c>
-      <c r="J7" s="38"/>
+      <c r="J7" s="37"/>
       <c r="K7" s="2">
         <v>2.9800000000000004</v>
       </c>
@@ -7619,21 +7707,16 @@
       <c r="U7" s="14">
         <v>0</v>
       </c>
-      <c r="X7" s="14" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Y7" s="66"/>
-    </row>
-    <row r="8" spans="3:25" ht="14.25" x14ac:dyDescent="0.45">
+    </row>
+    <row r="8" spans="3:22" x14ac:dyDescent="0.25">
       <c r="G8" s="14">
         <v>2030</v>
       </c>
       <c r="H8" s="14"/>
-      <c r="I8" s="38">
+      <c r="I8" s="37">
         <v>1.02</v>
       </c>
-      <c r="J8" s="38"/>
+      <c r="J8" s="37"/>
       <c r="K8" s="2">
         <v>2.9800000000000004</v>
       </c>
@@ -7661,21 +7744,16 @@
       <c r="U8" s="14">
         <v>0</v>
       </c>
-      <c r="X8" s="14" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Y8" s="66"/>
-    </row>
-    <row r="9" spans="3:25" ht="14.25" x14ac:dyDescent="0.45">
+    </row>
+    <row r="9" spans="3:22" x14ac:dyDescent="0.25">
       <c r="G9" s="14">
         <v>2050</v>
       </c>
       <c r="H9" s="14"/>
-      <c r="I9" s="38">
+      <c r="I9" s="37">
         <v>1.02</v>
       </c>
-      <c r="J9" s="38"/>
+      <c r="J9" s="37"/>
       <c r="K9" s="2">
         <v>2.9800000000000004</v>
       </c>
@@ -7703,26 +7781,21 @@
       <c r="U9" s="14">
         <v>0</v>
       </c>
-      <c r="X9" s="14" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Y9" s="66"/>
-    </row>
-    <row r="10" spans="3:25" ht="14.25" x14ac:dyDescent="0.45">
+    </row>
+    <row r="10" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C10" s="19" t="str">
-        <f>C42</f>
-        <v>RHTCPWBN1</v>
+        <f>C46</f>
+        <v>RHTCPWDBN1</v>
       </c>
       <c r="D10" s="19" t="str">
-        <f>D42</f>
-        <v>Residential heating technology  - biomass boiler automatic stoking - new 1</v>
+        <f>D46</f>
+        <v>Residential heating technology detached build. - biomass boiler automatic stoking - new 1</v>
       </c>
       <c r="E10" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="F10" s="87" t="s">
-        <v>93</v>
+        <v>78</v>
+      </c>
+      <c r="F10" s="81" t="s">
+        <v>114</v>
       </c>
       <c r="G10" s="16">
         <v>2015</v>
@@ -7730,10 +7803,10 @@
       <c r="H10" s="16">
         <v>2015</v>
       </c>
-      <c r="I10" s="39">
+      <c r="I10" s="38">
         <v>0.8</v>
       </c>
-      <c r="J10" s="39">
+      <c r="J10" s="38">
         <v>20</v>
       </c>
       <c r="K10" s="2">
@@ -7768,23 +7841,18 @@
         <v>10</v>
       </c>
       <c r="V10" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="X10" s="16" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Y10" s="66"/>
-    </row>
-    <row r="11" spans="3:25" ht="14.25" x14ac:dyDescent="0.45">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="3:22" x14ac:dyDescent="0.25">
       <c r="G11" s="16">
         <v>2020</v>
       </c>
       <c r="H11" s="16"/>
-      <c r="I11" s="39">
+      <c r="I11" s="38">
         <v>0.87</v>
       </c>
-      <c r="J11" s="39"/>
+      <c r="J11" s="38"/>
       <c r="K11" s="2">
         <v>3.9112500000000003</v>
       </c>
@@ -7812,21 +7880,16 @@
       <c r="U11" s="17">
         <v>8</v>
       </c>
-      <c r="X11" s="16" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Y11" s="66"/>
-    </row>
-    <row r="12" spans="3:25" ht="14.25" x14ac:dyDescent="0.45">
+    </row>
+    <row r="12" spans="3:22" x14ac:dyDescent="0.25">
       <c r="G12" s="16">
         <v>2030</v>
       </c>
       <c r="H12" s="16"/>
-      <c r="I12" s="39">
+      <c r="I12" s="38">
         <v>0.91</v>
       </c>
-      <c r="J12" s="39"/>
+      <c r="J12" s="38"/>
       <c r="K12" s="2">
         <v>4.8425000000000002</v>
       </c>
@@ -7854,21 +7917,16 @@
       <c r="U12" s="17">
         <v>6</v>
       </c>
-      <c r="X12" s="16" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Y12" s="66"/>
-    </row>
-    <row r="13" spans="3:25" ht="14.25" x14ac:dyDescent="0.45">
+    </row>
+    <row r="13" spans="3:22" x14ac:dyDescent="0.25">
       <c r="G13" s="16">
         <v>2050</v>
       </c>
       <c r="H13" s="16"/>
-      <c r="I13" s="39">
+      <c r="I13" s="38">
         <v>0.95</v>
       </c>
-      <c r="J13" s="39"/>
+      <c r="J13" s="38"/>
       <c r="K13" s="2">
         <v>4.8425000000000002</v>
       </c>
@@ -7896,26 +7954,21 @@
       <c r="U13" s="17">
         <v>4</v>
       </c>
-      <c r="X13" s="16" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Y13" s="66"/>
-    </row>
-    <row r="14" spans="3:25" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="C14" s="19" t="str">
-        <f>C43</f>
-        <v>RHTELCXN1</v>
-      </c>
-      <c r="D14" s="19" t="str">
-        <f>D43</f>
-        <v>Residential heating technology  - direct eletrical heating - new 1</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="F14" s="87" t="s">
-        <v>93</v>
+    </row>
+    <row r="14" spans="3:22" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="66" t="str">
+        <f>C47</f>
+        <v>RHTCPWMBN2</v>
+      </c>
+      <c r="D14" s="66" t="str">
+        <f>D47</f>
+        <v>Residential heating technology multistorey build. - biomass boiler automatic stoking - new 1</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="81" t="s">
+        <v>115</v>
       </c>
       <c r="G14" s="16">
         <v>2015</v>
@@ -7923,19 +7976,20 @@
       <c r="H14" s="16">
         <v>2015</v>
       </c>
-      <c r="I14" s="39">
-        <v>1</v>
-      </c>
-      <c r="J14" s="39">
-        <v>30</v>
+      <c r="I14" s="38">
+        <f>I10*1.1</f>
+        <v>0.88000000000000012</v>
+      </c>
+      <c r="J14" s="38">
+        <v>20</v>
       </c>
       <c r="K14" s="2">
-        <v>5.96</v>
+        <v>3.600833333333334</v>
       </c>
       <c r="L14" s="2">
         <v>1.49E-2</v>
       </c>
-      <c r="M14" s="16">
+      <c r="M14" s="29">
         <v>0</v>
       </c>
       <c r="N14" s="15">
@@ -7945,170 +7999,148 @@
         <v>0.2</v>
       </c>
       <c r="P14" s="32"/>
-      <c r="Q14" s="16">
+      <c r="Q14" s="29">
         <v>0</v>
       </c>
       <c r="R14" s="16">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="S14" s="16">
-        <v>0</v>
-      </c>
-      <c r="T14" s="16">
+        <v>3</v>
+      </c>
+      <c r="T14" s="29">
         <v>0</v>
       </c>
       <c r="U14" s="17">
-        <v>0</v>
-      </c>
-      <c r="V14" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="X14" s="16" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Y14" s="66"/>
-    </row>
-    <row r="15" spans="3:25" ht="14.25" x14ac:dyDescent="0.45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="3:22" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G15" s="16">
         <v>2020</v>
       </c>
       <c r="H15" s="16"/>
-      <c r="I15" s="39">
-        <v>1</v>
-      </c>
-      <c r="J15" s="39"/>
+      <c r="I15" s="38">
+        <f t="shared" ref="I15:I17" si="0">I11*1.1</f>
+        <v>0.95700000000000007</v>
+      </c>
+      <c r="J15" s="38"/>
       <c r="K15" s="2">
-        <v>5.96</v>
+        <v>3.9112500000000003</v>
       </c>
       <c r="L15" s="2">
-        <v>7.4499999999999997E-2</v>
-      </c>
-      <c r="M15" s="16">
+        <v>1.49E-2</v>
+      </c>
+      <c r="M15" s="29">
         <v>0</v>
       </c>
       <c r="N15" s="15"/>
       <c r="O15" s="32"/>
       <c r="P15" s="32"/>
-      <c r="Q15" s="16">
+      <c r="Q15" s="29">
         <v>0</v>
       </c>
       <c r="R15" s="16">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="S15" s="16">
-        <v>0</v>
-      </c>
-      <c r="T15" s="16">
+        <v>2</v>
+      </c>
+      <c r="T15" s="29">
         <v>0</v>
       </c>
       <c r="U15" s="17">
-        <v>0</v>
-      </c>
-      <c r="X15" s="16" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Y15" s="66"/>
-    </row>
-    <row r="16" spans="3:25" ht="14.25" x14ac:dyDescent="0.45">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="3:22" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G16" s="16">
         <v>2030</v>
       </c>
       <c r="H16" s="16"/>
-      <c r="I16" s="39">
+      <c r="I16" s="38">
         <v>1</v>
       </c>
-      <c r="J16" s="39"/>
+      <c r="J16" s="38"/>
       <c r="K16" s="2">
-        <v>5.96</v>
+        <v>4.8425000000000002</v>
       </c>
       <c r="L16" s="2">
-        <v>7.4499999999999997E-2</v>
-      </c>
-      <c r="M16" s="16">
+        <v>2.2350000000000002E-2</v>
+      </c>
+      <c r="M16" s="29">
         <v>0</v>
       </c>
       <c r="N16" s="15"/>
       <c r="O16" s="32"/>
       <c r="P16" s="32"/>
-      <c r="Q16" s="16">
+      <c r="Q16" s="29">
         <v>0</v>
       </c>
       <c r="R16" s="16">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="S16" s="16">
-        <v>0</v>
-      </c>
-      <c r="T16" s="16">
+        <v>1</v>
+      </c>
+      <c r="T16" s="29">
         <v>0</v>
       </c>
       <c r="U16" s="17">
-        <v>0</v>
-      </c>
-      <c r="X16" s="16" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Y16" s="66"/>
-    </row>
-    <row r="17" spans="3:25" ht="14.25" x14ac:dyDescent="0.45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="3:22" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G17" s="16">
         <v>2050</v>
       </c>
       <c r="H17" s="16"/>
-      <c r="I17" s="39">
+      <c r="I17" s="38">
         <v>1</v>
       </c>
-      <c r="J17" s="39"/>
+      <c r="J17" s="38"/>
       <c r="K17" s="2">
-        <v>5.96</v>
+        <v>4.8425000000000002</v>
       </c>
       <c r="L17" s="2">
-        <v>7.4499999999999997E-2</v>
-      </c>
-      <c r="M17" s="16">
+        <v>2.2350000000000002E-2</v>
+      </c>
+      <c r="M17" s="29">
         <v>0</v>
       </c>
       <c r="N17" s="15"/>
       <c r="O17" s="32"/>
       <c r="P17" s="32"/>
-      <c r="Q17" s="16">
+      <c r="Q17" s="29">
         <v>0</v>
       </c>
       <c r="R17" s="16">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="S17" s="16">
         <v>0</v>
       </c>
-      <c r="T17" s="16">
+      <c r="T17" s="29">
         <v>0</v>
       </c>
       <c r="U17" s="17">
-        <v>0</v>
-      </c>
-      <c r="X17" s="16" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Y17" s="66"/>
-    </row>
-    <row r="18" spans="3:25" ht="14.25" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C18" s="19" t="str">
-        <f>C44</f>
-        <v>RHTELCXN2</v>
-      </c>
-      <c r="D18" s="90" t="str">
-        <f>D44</f>
-        <v>Residential heating technology  - Heat pump, air-to-air - new 2</v>
-      </c>
-      <c r="E18" s="72" t="s">
-        <v>83</v>
-      </c>
-      <c r="F18" s="87" t="s">
-        <v>93</v>
+        <f>C48</f>
+        <v>RHTELCXN1</v>
+      </c>
+      <c r="D18" s="19" t="str">
+        <f>D48</f>
+        <v>Residential heating technology  - direct eletrical heating - new 1</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="F18" s="81" t="s">
+        <v>123</v>
       </c>
       <c r="G18" s="16">
         <v>2015</v>
@@ -8116,17 +8148,17 @@
       <c r="H18" s="16">
         <v>2015</v>
       </c>
-      <c r="I18" s="91">
-        <v>2.8</v>
-      </c>
-      <c r="J18" s="39">
-        <v>20</v>
-      </c>
-      <c r="K18" s="19">
-        <v>4.0230000000000006</v>
+      <c r="I18" s="38">
+        <v>1</v>
+      </c>
+      <c r="J18" s="38">
+        <v>30</v>
+      </c>
+      <c r="K18" s="2">
+        <v>5.96</v>
       </c>
       <c r="L18" s="2">
-        <v>6.2580000000000011E-2</v>
+        <v>1.49E-2</v>
       </c>
       <c r="M18" s="16">
         <v>0</v>
@@ -8135,10 +8167,10 @@
         <v>3.1536000000000002E-2</v>
       </c>
       <c r="O18" s="32">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="P18" s="32"/>
-      <c r="Q18" s="31">
+      <c r="Q18" s="16">
         <v>0</v>
       </c>
       <c r="R18" s="16">
@@ -8154,31 +8186,23 @@
         <v>0</v>
       </c>
       <c r="V18" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="X18" s="16" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Y18" s="70" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="19" spans="3:25" ht="14.25" x14ac:dyDescent="0.45">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.25">
       <c r="G19" s="16">
         <v>2020</v>
       </c>
       <c r="H19" s="16"/>
-      <c r="I19" s="91">
-        <v>2.8</v>
-      </c>
-      <c r="J19" s="39"/>
-      <c r="K19" s="19">
-        <v>3.8740000000000001</v>
+      <c r="I19" s="38">
+        <v>1</v>
+      </c>
+      <c r="J19" s="38"/>
+      <c r="K19" s="2">
+        <v>5.96</v>
       </c>
       <c r="L19" s="2">
-        <v>6.2580000000000011E-2</v>
+        <v>7.4499999999999997E-2</v>
       </c>
       <c r="M19" s="16">
         <v>0</v>
@@ -8201,29 +8225,21 @@
       <c r="U19" s="17">
         <v>0</v>
       </c>
-      <c r="X19" s="16" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Y19" s="70" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="20" spans="3:25" ht="14.25" x14ac:dyDescent="0.45">
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.25">
       <c r="G20" s="16">
         <v>2030</v>
       </c>
       <c r="H20" s="16"/>
-      <c r="I20" s="91">
-        <v>2.8</v>
-      </c>
-      <c r="J20" s="39"/>
-      <c r="K20" s="19">
-        <v>3.5760000000000001</v>
+      <c r="I20" s="38">
+        <v>1</v>
+      </c>
+      <c r="J20" s="38"/>
+      <c r="K20" s="2">
+        <v>5.96</v>
       </c>
       <c r="L20" s="2">
-        <v>6.2580000000000011E-2</v>
+        <v>7.4499999999999997E-2</v>
       </c>
       <c r="M20" s="16">
         <v>0</v>
@@ -8246,29 +8262,21 @@
       <c r="U20" s="17">
         <v>0</v>
       </c>
-      <c r="X20" s="16" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Y20" s="70" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="21" spans="3:25" ht="14.25" x14ac:dyDescent="0.45">
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.25">
       <c r="G21" s="16">
         <v>2050</v>
       </c>
       <c r="H21" s="16"/>
-      <c r="I21" s="91">
-        <v>2.8</v>
-      </c>
-      <c r="J21" s="39"/>
-      <c r="K21" s="19">
-        <v>3.4269999999999996</v>
+      <c r="I21" s="38">
+        <v>1</v>
+      </c>
+      <c r="J21" s="38"/>
+      <c r="K21" s="2">
+        <v>5.96</v>
       </c>
       <c r="L21" s="2">
-        <v>6.2580000000000011E-2</v>
+        <v>7.4499999999999997E-2</v>
       </c>
       <c r="M21" s="16">
         <v>0</v>
@@ -8291,917 +8299,1356 @@
       <c r="U21" s="17">
         <v>0</v>
       </c>
-      <c r="X21" s="16" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Y21" s="70" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="22" spans="3:25" s="72" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="C22" s="90" t="str">
-        <f>C46</f>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C22" s="19" t="str">
+        <f>C49</f>
+        <v>RHTELCXN2</v>
+      </c>
+      <c r="D22" s="83" t="str">
+        <f>D49</f>
+        <v>Residential heating technology  - Heat pump, air-to-air - new 2</v>
+      </c>
+      <c r="E22" s="66" t="s">
+        <v>81</v>
+      </c>
+      <c r="F22" s="81" t="s">
+        <v>123</v>
+      </c>
+      <c r="G22" s="16">
+        <v>2015</v>
+      </c>
+      <c r="H22" s="16">
+        <v>2015</v>
+      </c>
+      <c r="I22" s="84">
+        <v>2.8</v>
+      </c>
+      <c r="J22" s="38">
+        <v>20</v>
+      </c>
+      <c r="K22" s="19">
+        <v>4.0230000000000006</v>
+      </c>
+      <c r="L22" s="2">
+        <v>6.2580000000000011E-2</v>
+      </c>
+      <c r="M22" s="16">
+        <v>0</v>
+      </c>
+      <c r="N22" s="15">
+        <v>3.1536000000000002E-2</v>
+      </c>
+      <c r="O22" s="32">
+        <v>0.12</v>
+      </c>
+      <c r="P22" s="32"/>
+      <c r="Q22" s="31">
+        <v>0</v>
+      </c>
+      <c r="R22" s="16">
+        <v>0</v>
+      </c>
+      <c r="S22" s="16">
+        <v>0</v>
+      </c>
+      <c r="T22" s="16">
+        <v>0</v>
+      </c>
+      <c r="U22" s="17">
+        <v>0</v>
+      </c>
+      <c r="V22" s="19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="G23" s="16">
+        <v>2020</v>
+      </c>
+      <c r="H23" s="16"/>
+      <c r="I23" s="84">
+        <v>2.8</v>
+      </c>
+      <c r="J23" s="38"/>
+      <c r="K23" s="19">
+        <v>3.8740000000000001</v>
+      </c>
+      <c r="L23" s="2">
+        <v>6.2580000000000011E-2</v>
+      </c>
+      <c r="M23" s="16">
+        <v>0</v>
+      </c>
+      <c r="N23" s="15"/>
+      <c r="O23" s="32"/>
+      <c r="P23" s="32"/>
+      <c r="Q23" s="16">
+        <v>0</v>
+      </c>
+      <c r="R23" s="16">
+        <v>0</v>
+      </c>
+      <c r="S23" s="16">
+        <v>0</v>
+      </c>
+      <c r="T23" s="16">
+        <v>0</v>
+      </c>
+      <c r="U23" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="G24" s="16">
+        <v>2030</v>
+      </c>
+      <c r="H24" s="16"/>
+      <c r="I24" s="84">
+        <v>2.8</v>
+      </c>
+      <c r="J24" s="38"/>
+      <c r="K24" s="19">
+        <v>3.5760000000000001</v>
+      </c>
+      <c r="L24" s="2">
+        <v>6.2580000000000011E-2</v>
+      </c>
+      <c r="M24" s="16">
+        <v>0</v>
+      </c>
+      <c r="N24" s="15"/>
+      <c r="O24" s="32"/>
+      <c r="P24" s="32"/>
+      <c r="Q24" s="16">
+        <v>0</v>
+      </c>
+      <c r="R24" s="16">
+        <v>0</v>
+      </c>
+      <c r="S24" s="16">
+        <v>0</v>
+      </c>
+      <c r="T24" s="16">
+        <v>0</v>
+      </c>
+      <c r="U24" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="G25" s="16">
+        <v>2050</v>
+      </c>
+      <c r="H25" s="16"/>
+      <c r="I25" s="84">
+        <v>2.8</v>
+      </c>
+      <c r="J25" s="38"/>
+      <c r="K25" s="19">
+        <v>3.4269999999999996</v>
+      </c>
+      <c r="L25" s="2">
+        <v>6.2580000000000011E-2</v>
+      </c>
+      <c r="M25" s="16">
+        <v>0</v>
+      </c>
+      <c r="N25" s="15"/>
+      <c r="O25" s="32"/>
+      <c r="P25" s="32"/>
+      <c r="Q25" s="16">
+        <v>0</v>
+      </c>
+      <c r="R25" s="16">
+        <v>0</v>
+      </c>
+      <c r="S25" s="16">
+        <v>0</v>
+      </c>
+      <c r="T25" s="16">
+        <v>0</v>
+      </c>
+      <c r="U25" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="83" t="str">
+        <f>C52</f>
         <v>RCTACN1</v>
       </c>
-      <c r="D22" s="90" t="str">
-        <f>D46</f>
+      <c r="D26" s="83" t="str">
+        <f>D52</f>
         <v>Residential cooling technology  - AC - new 1</v>
       </c>
-      <c r="E22" s="72" t="s">
-        <v>83</v>
-      </c>
-      <c r="F22" s="72" t="s">
-        <v>106</v>
-      </c>
-      <c r="G22" s="34">
+      <c r="E26" s="66" t="s">
+        <v>81</v>
+      </c>
+      <c r="F26" s="66" t="s">
+        <v>128</v>
+      </c>
+      <c r="G26" s="34">
         <v>2015</v>
       </c>
-      <c r="H22" s="34">
+      <c r="H26" s="34">
         <v>2015</v>
       </c>
-      <c r="I22" s="91">
+      <c r="I26" s="84">
         <v>0.8</v>
       </c>
-      <c r="J22" s="41">
+      <c r="J26" s="40">
         <v>10</v>
       </c>
-      <c r="K22" s="72">
+      <c r="K26" s="66">
         <v>3.600833333333334</v>
       </c>
-      <c r="L22" s="2">
+      <c r="L26" s="2">
         <v>1.49E-2</v>
       </c>
-      <c r="M22" s="34">
-        <v>0</v>
-      </c>
-      <c r="N22" s="85">
+      <c r="M26" s="34">
+        <v>0</v>
+      </c>
+      <c r="N26" s="79">
         <v>3.1536000000000002E-2</v>
       </c>
-      <c r="O22" s="92">
+      <c r="O26" s="85">
         <v>0.2</v>
       </c>
-      <c r="P22" s="93"/>
-      <c r="Q22" s="34">
-        <v>0</v>
-      </c>
-      <c r="R22" s="34">
-        <v>0</v>
-      </c>
-      <c r="S22" s="34">
-        <v>0</v>
-      </c>
-      <c r="T22" s="34">
-        <v>0</v>
-      </c>
-      <c r="U22" s="94">
-        <v>0</v>
-      </c>
-      <c r="X22" s="34"/>
-      <c r="Y22" s="95"/>
-    </row>
-    <row r="23" spans="3:25" s="72" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="G23" s="34">
+      <c r="P26" s="86"/>
+      <c r="Q26" s="34">
+        <v>0</v>
+      </c>
+      <c r="R26" s="34">
+        <v>0</v>
+      </c>
+      <c r="S26" s="34">
+        <v>0</v>
+      </c>
+      <c r="T26" s="34">
+        <v>0</v>
+      </c>
+      <c r="U26" s="87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G27" s="34">
         <v>2020</v>
       </c>
-      <c r="H23" s="34"/>
-      <c r="I23" s="91">
+      <c r="H27" s="34"/>
+      <c r="I27" s="84">
         <v>0.81</v>
       </c>
-      <c r="J23" s="41">
+      <c r="J27" s="40">
         <v>11</v>
       </c>
-      <c r="K23" s="72">
+      <c r="K27" s="66">
         <v>3.9112500000000003</v>
       </c>
-      <c r="L23" s="2">
+      <c r="L27" s="2">
         <v>1.49E-2</v>
       </c>
-      <c r="M23" s="34">
-        <v>0</v>
-      </c>
-      <c r="N23" s="85">
+      <c r="M27" s="34">
+        <v>0</v>
+      </c>
+      <c r="N27" s="79">
         <v>3.1536000000000002E-2</v>
       </c>
-      <c r="O23" s="92">
+      <c r="O27" s="85">
         <v>0.2</v>
       </c>
-      <c r="P23" s="93"/>
-      <c r="Q23" s="34">
-        <v>0</v>
-      </c>
-      <c r="R23" s="34">
-        <v>0</v>
-      </c>
-      <c r="S23" s="34">
-        <v>0</v>
-      </c>
-      <c r="T23" s="34">
-        <v>0</v>
-      </c>
-      <c r="U23" s="94">
-        <v>0</v>
-      </c>
-      <c r="X23" s="34"/>
-      <c r="Y23" s="95"/>
-    </row>
-    <row r="24" spans="3:25" s="72" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="G24" s="34">
+      <c r="P27" s="86"/>
+      <c r="Q27" s="34">
+        <v>0</v>
+      </c>
+      <c r="R27" s="34">
+        <v>0</v>
+      </c>
+      <c r="S27" s="34">
+        <v>0</v>
+      </c>
+      <c r="T27" s="34">
+        <v>0</v>
+      </c>
+      <c r="U27" s="87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G28" s="34">
         <v>2030</v>
       </c>
-      <c r="H24" s="34"/>
-      <c r="I24" s="91">
+      <c r="H28" s="34"/>
+      <c r="I28" s="84">
         <v>0.82</v>
       </c>
-      <c r="J24" s="41">
+      <c r="J28" s="40">
         <v>12</v>
       </c>
-      <c r="K24" s="72">
+      <c r="K28" s="66">
         <v>4.8425000000000002</v>
       </c>
-      <c r="L24" s="2">
+      <c r="L28" s="2">
         <v>2.2350000000000002E-2</v>
       </c>
-      <c r="M24" s="34">
-        <v>0</v>
-      </c>
-      <c r="N24" s="85">
+      <c r="M28" s="34">
+        <v>0</v>
+      </c>
+      <c r="N28" s="79">
         <v>3.1536000000000002E-2</v>
       </c>
-      <c r="O24" s="92">
+      <c r="O28" s="85">
         <v>0.2</v>
       </c>
-      <c r="P24" s="93"/>
-      <c r="Q24" s="34">
-        <v>0</v>
-      </c>
-      <c r="R24" s="34">
-        <v>0</v>
-      </c>
-      <c r="S24" s="34">
-        <v>0</v>
-      </c>
-      <c r="T24" s="34">
-        <v>0</v>
-      </c>
-      <c r="U24" s="94">
-        <v>0</v>
-      </c>
-      <c r="X24" s="34"/>
-      <c r="Y24" s="95"/>
-    </row>
-    <row r="25" spans="3:25" s="72" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="G25" s="34">
+      <c r="P28" s="86"/>
+      <c r="Q28" s="34">
+        <v>0</v>
+      </c>
+      <c r="R28" s="34">
+        <v>0</v>
+      </c>
+      <c r="S28" s="34">
+        <v>0</v>
+      </c>
+      <c r="T28" s="34">
+        <v>0</v>
+      </c>
+      <c r="U28" s="87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G29" s="34">
         <v>2050</v>
       </c>
-      <c r="H25" s="34"/>
-      <c r="I25" s="91">
+      <c r="H29" s="34"/>
+      <c r="I29" s="84">
         <v>0.83</v>
       </c>
-      <c r="J25" s="41">
+      <c r="J29" s="40">
         <v>13</v>
       </c>
-      <c r="K25" s="72">
+      <c r="K29" s="66">
         <v>4.8425000000000002</v>
       </c>
-      <c r="L25" s="2">
+      <c r="L29" s="2">
         <v>2.2350000000000002E-2</v>
       </c>
-      <c r="M25" s="34">
-        <v>0</v>
-      </c>
-      <c r="N25" s="85">
+      <c r="M29" s="34">
+        <v>0</v>
+      </c>
+      <c r="N29" s="79">
         <v>3.1536000000000002E-2</v>
       </c>
-      <c r="O25" s="92">
+      <c r="O29" s="85">
         <v>0.2</v>
       </c>
-      <c r="P25" s="93"/>
-      <c r="Q25" s="34">
-        <v>0</v>
-      </c>
-      <c r="R25" s="34">
-        <v>0</v>
-      </c>
-      <c r="S25" s="34">
-        <v>0</v>
-      </c>
-      <c r="T25" s="34">
-        <v>0</v>
-      </c>
-      <c r="U25" s="94">
-        <v>0</v>
-      </c>
-      <c r="X25" s="34"/>
-      <c r="Y25" s="95"/>
-    </row>
-    <row r="26" spans="3:25" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="C26" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D26" s="1"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="41"/>
-      <c r="J26" s="41"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="35"/>
-      <c r="N26" s="85"/>
-      <c r="O26" s="84"/>
-      <c r="P26" s="35"/>
-      <c r="Q26" s="37"/>
-      <c r="R26" s="35"/>
-      <c r="S26" s="35"/>
-      <c r="T26" s="37"/>
-      <c r="U26" s="37"/>
-      <c r="X26" s="34"/>
-    </row>
-    <row r="27" spans="3:25" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="C27" s="13" t="str">
-        <f>C45</f>
-        <v>RHTHCEBN1</v>
-      </c>
-      <c r="D27" s="13" t="str">
-        <f>D45</f>
-        <v>Residential heating technology  - district heat - new 1</v>
-      </c>
-      <c r="E27" s="87" t="s">
-        <v>85</v>
-      </c>
-      <c r="F27" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="G27" s="14">
-        <v>2012</v>
-      </c>
-      <c r="H27" s="14">
-        <v>2012</v>
-      </c>
-      <c r="I27" s="14">
-        <v>0.96</v>
-      </c>
-      <c r="J27" s="14">
-        <v>30</v>
-      </c>
-      <c r="K27" s="45">
-        <v>1.3843185398189326</v>
-      </c>
-      <c r="L27" s="83">
-        <v>9.5546249999999999E-2</v>
-      </c>
-      <c r="M27" s="83">
-        <v>14.154999999999999</v>
-      </c>
-      <c r="N27" s="44">
-        <v>3.1536000000000002E-2</v>
-      </c>
-      <c r="O27" s="45">
-        <v>0.2</v>
-      </c>
-      <c r="P27" s="18"/>
-      <c r="Q27" s="30"/>
-      <c r="R27" s="18"/>
-      <c r="S27" s="18"/>
-      <c r="T27" s="30"/>
-      <c r="U27" s="30"/>
-      <c r="V27" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="X27" s="34"/>
-    </row>
-    <row r="28" spans="3:25" s="74" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="G28" s="42"/>
-      <c r="H28" s="42"/>
-      <c r="I28" s="42"/>
-      <c r="J28" s="42"/>
-      <c r="K28" s="75"/>
-      <c r="L28" s="75"/>
-      <c r="M28" s="75"/>
-      <c r="N28" s="46"/>
-      <c r="O28" s="76"/>
-      <c r="P28" s="35"/>
-      <c r="Q28" s="37"/>
-      <c r="R28" s="35"/>
-      <c r="S28" s="35"/>
-      <c r="T28" s="37"/>
-      <c r="U28" s="37"/>
-      <c r="X28" s="42"/>
-    </row>
-    <row r="29" spans="3:25" s="74" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="G29" s="42"/>
-      <c r="H29" s="42"/>
-      <c r="I29" s="42"/>
-      <c r="J29" s="42"/>
-      <c r="K29" s="75"/>
-      <c r="L29" s="75"/>
-      <c r="M29" s="75"/>
-      <c r="N29" s="46"/>
-      <c r="O29" s="76"/>
-      <c r="P29" s="35"/>
-      <c r="Q29" s="37"/>
-      <c r="R29" s="35"/>
-      <c r="S29" s="35"/>
-      <c r="T29" s="37"/>
-      <c r="U29" s="37"/>
-      <c r="X29" s="42"/>
-    </row>
-    <row r="30" spans="3:25" s="74" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="G30" s="42"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="42"/>
-      <c r="J30" s="42"/>
-      <c r="K30" s="75"/>
-      <c r="L30" s="75"/>
-      <c r="M30" s="75"/>
-      <c r="N30" s="46"/>
-      <c r="O30" s="76"/>
+      <c r="P29" s="86"/>
+      <c r="Q29" s="34">
+        <v>0</v>
+      </c>
+      <c r="R29" s="34">
+        <v>0</v>
+      </c>
+      <c r="S29" s="34">
+        <v>0</v>
+      </c>
+      <c r="T29" s="34">
+        <v>0</v>
+      </c>
+      <c r="U29" s="87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C30" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="35"/>
+      <c r="N30" s="79"/>
+      <c r="O30" s="78"/>
       <c r="P30" s="35"/>
-      <c r="Q30" s="37"/>
+      <c r="Q30" s="36"/>
       <c r="R30" s="35"/>
       <c r="S30" s="35"/>
-      <c r="T30" s="37"/>
-      <c r="U30" s="37"/>
-      <c r="X30" s="42"/>
-    </row>
-    <row r="31" spans="3:25" s="74" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="F31" s="75"/>
-      <c r="G31" s="46"/>
-      <c r="K31" s="75"/>
-      <c r="L31" s="75"/>
-      <c r="M31" s="75"/>
-      <c r="N31" s="46"/>
-      <c r="O31" s="76"/>
-      <c r="P31" s="35"/>
-      <c r="Q31" s="37"/>
-      <c r="R31" s="35"/>
-      <c r="S31" s="35"/>
-      <c r="T31" s="37"/>
-      <c r="U31" s="37"/>
-      <c r="X31" s="42"/>
-    </row>
-    <row r="32" spans="3:25" s="74" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="G32" s="75"/>
-      <c r="H32" s="46"/>
-      <c r="L32" s="75"/>
-      <c r="M32" s="75"/>
-      <c r="N32" s="75"/>
-      <c r="O32" s="46"/>
-      <c r="P32" s="76"/>
-      <c r="Q32" s="35"/>
-      <c r="R32" s="37"/>
-      <c r="S32" s="35"/>
-      <c r="T32" s="35"/>
-      <c r="U32" s="37"/>
-      <c r="V32" s="37"/>
-      <c r="Y32" s="42"/>
-    </row>
-    <row r="33" spans="1:25" s="74" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="H33" s="42"/>
-      <c r="I33" s="42"/>
-      <c r="J33" s="42"/>
-      <c r="K33" s="42"/>
-      <c r="L33" s="75"/>
-      <c r="M33" s="75"/>
-      <c r="N33" s="75"/>
-      <c r="O33" s="46"/>
-      <c r="P33" s="76"/>
-      <c r="Q33" s="35"/>
-      <c r="R33" s="37"/>
+      <c r="T30" s="36"/>
+      <c r="U30" s="36"/>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C31" s="91" t="str">
+        <f>C50</f>
+        <v>RHTDBDHN1</v>
+      </c>
+      <c r="D31" s="13" t="str">
+        <f>D50</f>
+        <v>Residential heating technology detached buildings - district heat - new 1</v>
+      </c>
+      <c r="E31" s="81" t="s">
+        <v>83</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="G31" s="14">
+        <v>2012</v>
+      </c>
+      <c r="H31" s="14">
+        <v>2012</v>
+      </c>
+      <c r="I31" s="14">
+        <v>0.96</v>
+      </c>
+      <c r="J31" s="14">
+        <v>30</v>
+      </c>
+      <c r="K31" s="44">
+        <v>1.3843185398189326</v>
+      </c>
+      <c r="L31" s="77">
+        <v>9.5546249999999999E-2</v>
+      </c>
+      <c r="M31" s="77">
+        <v>14.154999999999999</v>
+      </c>
+      <c r="N31" s="43">
+        <v>3.1536000000000002E-2</v>
+      </c>
+      <c r="O31" s="44">
+        <v>0.2</v>
+      </c>
+      <c r="P31" s="18"/>
+      <c r="Q31" s="30"/>
+      <c r="R31" s="18"/>
+      <c r="S31" s="18"/>
+      <c r="T31" s="30"/>
+      <c r="U31" s="30"/>
+      <c r="V31" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="13" t="str">
+        <f>C51</f>
+        <v>RHTMBDHN1</v>
+      </c>
+      <c r="D32" s="13" t="str">
+        <f>D52</f>
+        <v>Residential cooling technology  - AC - new 1</v>
+      </c>
+      <c r="E32" s="81" t="s">
+        <v>83</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="G32" s="14">
+        <v>2012</v>
+      </c>
+      <c r="H32" s="14">
+        <v>2012</v>
+      </c>
+      <c r="I32" s="14">
+        <v>1</v>
+      </c>
+      <c r="J32" s="14">
+        <v>30</v>
+      </c>
+      <c r="K32" s="44">
+        <v>1.2</v>
+      </c>
+      <c r="L32" s="77">
+        <v>9.5546249999999999E-2</v>
+      </c>
+      <c r="M32" s="77">
+        <v>12</v>
+      </c>
+      <c r="N32" s="43">
+        <v>3.1536000000000002E-2</v>
+      </c>
+      <c r="O32" s="44">
+        <v>0.2</v>
+      </c>
+      <c r="P32" s="18"/>
+      <c r="Q32" s="30"/>
+      <c r="R32" s="18"/>
+      <c r="S32" s="18"/>
+      <c r="T32" s="30"/>
+      <c r="U32" s="30"/>
+    </row>
+    <row r="33" spans="1:23" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G33" s="41"/>
+      <c r="H33" s="41"/>
+      <c r="I33" s="41"/>
+      <c r="J33" s="41"/>
+      <c r="K33" s="69"/>
+      <c r="L33" s="69"/>
+      <c r="M33" s="69"/>
+      <c r="N33" s="45"/>
+      <c r="O33" s="70"/>
+      <c r="P33" s="35"/>
+      <c r="Q33" s="36"/>
+      <c r="R33" s="35"/>
       <c r="S33" s="35"/>
-      <c r="T33" s="35"/>
-      <c r="U33" s="37"/>
-      <c r="V33" s="37"/>
-      <c r="Y33" s="42"/>
-    </row>
-    <row r="34" spans="1:25" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="C34" s="24"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="H34" s="42"/>
-      <c r="I34" s="42"/>
-      <c r="J34" s="42"/>
-      <c r="K34" s="42"/>
-      <c r="L34" s="43"/>
-      <c r="M34" s="43"/>
-      <c r="N34" s="35"/>
-      <c r="O34" s="46"/>
+      <c r="T33" s="36"/>
+      <c r="U33" s="36"/>
+    </row>
+    <row r="34" spans="1:23" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G34" s="41"/>
+      <c r="H34" s="41"/>
+      <c r="I34" s="41"/>
+      <c r="J34" s="41"/>
+      <c r="K34" s="69"/>
+      <c r="L34" s="69"/>
+      <c r="M34" s="69"/>
+      <c r="N34" s="45"/>
+      <c r="O34" s="70"/>
       <c r="P34" s="35"/>
-      <c r="Q34" s="35"/>
-      <c r="R34" s="37"/>
+      <c r="Q34" s="36"/>
+      <c r="R34" s="35"/>
       <c r="S34" s="35"/>
-      <c r="T34" s="35"/>
-      <c r="U34" s="37"/>
-      <c r="V34" s="37"/>
-      <c r="Y34" s="34"/>
-    </row>
-    <row r="35" spans="1:25" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="G35" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="H35" s="34"/>
-      <c r="I35" s="34"/>
-      <c r="J35" s="34"/>
-      <c r="K35" s="34"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="35"/>
-      <c r="O35" s="36"/>
+      <c r="T34" s="36"/>
+      <c r="U34" s="36"/>
+    </row>
+    <row r="35" spans="1:23" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F35" s="69"/>
+      <c r="G35" s="45"/>
+      <c r="K35" s="69"/>
+      <c r="L35" s="69"/>
+      <c r="M35" s="69"/>
+      <c r="N35" s="45"/>
+      <c r="O35" s="70"/>
       <c r="P35" s="35"/>
-      <c r="Q35" s="35"/>
-      <c r="R35" s="37"/>
+      <c r="Q35" s="36"/>
+      <c r="R35" s="35"/>
       <c r="S35" s="35"/>
-      <c r="T35" s="35"/>
-      <c r="U35" s="37"/>
-      <c r="V35" s="37"/>
-      <c r="Y35" s="34"/>
-    </row>
-    <row r="38" spans="1:25" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A38" s="23"/>
-      <c r="B38" s="51" t="s">
-        <v>72</v>
-      </c>
-      <c r="C38" s="52"/>
-      <c r="D38" s="52"/>
-      <c r="E38" s="52"/>
-      <c r="F38" s="52"/>
-      <c r="G38" s="52"/>
-      <c r="H38" s="52"/>
-      <c r="I38" s="52"/>
-    </row>
-    <row r="39" spans="1:25" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A39" s="23"/>
-      <c r="B39" s="53" t="s">
+      <c r="T35" s="36"/>
+      <c r="U35" s="36"/>
+    </row>
+    <row r="36" spans="1:23" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G36" s="69"/>
+      <c r="H36" s="45"/>
+      <c r="L36" s="69"/>
+      <c r="M36" s="69"/>
+      <c r="N36" s="69"/>
+      <c r="O36" s="45"/>
+      <c r="P36" s="70"/>
+      <c r="Q36" s="35"/>
+      <c r="R36" s="36"/>
+      <c r="S36" s="35"/>
+      <c r="T36" s="35"/>
+      <c r="U36" s="36"/>
+      <c r="V36" s="36"/>
+    </row>
+    <row r="37" spans="1:23" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H37" s="41"/>
+      <c r="I37" s="41"/>
+      <c r="J37" s="41"/>
+      <c r="K37" s="41"/>
+      <c r="L37" s="69"/>
+      <c r="M37" s="69"/>
+      <c r="N37" s="69"/>
+      <c r="O37" s="45"/>
+      <c r="P37" s="70"/>
+      <c r="Q37" s="35"/>
+      <c r="R37" s="36"/>
+      <c r="S37" s="35"/>
+      <c r="T37" s="35"/>
+      <c r="U37" s="36"/>
+      <c r="V37" s="36"/>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C38" s="24"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="H38" s="41"/>
+      <c r="I38" s="41"/>
+      <c r="J38" s="41"/>
+      <c r="K38" s="41"/>
+      <c r="L38" s="42"/>
+      <c r="M38" s="42"/>
+      <c r="N38" s="35"/>
+      <c r="O38" s="45"/>
+      <c r="P38" s="35"/>
+      <c r="Q38" s="35"/>
+      <c r="R38" s="36"/>
+      <c r="S38" s="35"/>
+      <c r="T38" s="35"/>
+      <c r="U38" s="36"/>
+      <c r="V38" s="36"/>
+      <c r="W38" s="13"/>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="G39" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="H39" s="34"/>
+      <c r="I39" s="34"/>
+      <c r="J39" s="34"/>
+      <c r="K39" s="34"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="42"/>
+      <c r="N39" s="35"/>
+      <c r="O39" s="45"/>
+      <c r="P39" s="35"/>
+      <c r="Q39" s="35"/>
+      <c r="R39" s="36"/>
+      <c r="S39" s="35"/>
+      <c r="T39" s="35"/>
+      <c r="U39" s="36"/>
+      <c r="V39" s="36"/>
+      <c r="W39" s="13"/>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="M40" s="13"/>
+      <c r="N40" s="92"/>
+      <c r="O40" s="92"/>
+      <c r="P40" s="13"/>
+      <c r="Q40" s="92"/>
+      <c r="R40" s="92"/>
+      <c r="S40" s="92"/>
+      <c r="T40" s="92"/>
+      <c r="U40" s="92"/>
+      <c r="V40" s="92"/>
+      <c r="W40" s="13"/>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="M41" s="13"/>
+      <c r="N41" s="92"/>
+      <c r="O41" s="92"/>
+      <c r="P41" s="13"/>
+      <c r="Q41" s="92"/>
+      <c r="R41" s="92"/>
+      <c r="S41" s="92"/>
+      <c r="T41" s="92"/>
+      <c r="U41" s="92"/>
+      <c r="V41" s="92"/>
+      <c r="W41" s="13"/>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A42" s="23"/>
+      <c r="B42" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="C39" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="D39" s="53" t="s">
+      <c r="C42" s="51"/>
+      <c r="D42" s="51"/>
+      <c r="E42" s="51"/>
+      <c r="F42" s="51"/>
+      <c r="G42" s="51"/>
+      <c r="H42" s="51"/>
+      <c r="I42" s="51"/>
+      <c r="M42" s="13"/>
+      <c r="N42" s="92"/>
+      <c r="O42" s="92"/>
+      <c r="P42" s="13"/>
+      <c r="Q42" s="92"/>
+      <c r="R42" s="92"/>
+      <c r="S42" s="92"/>
+      <c r="T42" s="92"/>
+      <c r="U42" s="92"/>
+      <c r="V42" s="92"/>
+      <c r="W42" s="13"/>
+    </row>
+    <row r="43" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A43" s="23"/>
+      <c r="B43" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="E39" s="53" t="s">
+      <c r="C43" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="D43" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="F39" s="53" t="s">
+      <c r="E43" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="G39" s="53" t="s">
+      <c r="F43" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="H39" s="53" t="s">
+      <c r="G43" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="I39" s="53" t="s">
+      <c r="H43" s="52" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="40" spans="1:25" ht="31.9" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A40" s="23"/>
-      <c r="B40" s="54" t="s">
+      <c r="I43" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="C40" s="54" t="s">
+      <c r="M43" s="13"/>
+      <c r="N43" s="92"/>
+      <c r="O43" s="92"/>
+      <c r="P43" s="92"/>
+      <c r="Q43" s="92"/>
+      <c r="R43" s="92"/>
+      <c r="S43" s="92"/>
+      <c r="T43" s="92"/>
+      <c r="U43" s="92"/>
+      <c r="V43" s="92"/>
+      <c r="W43" s="13"/>
+    </row>
+    <row r="44" spans="1:23" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="23"/>
+      <c r="B44" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="D40" s="54" t="s">
+      <c r="C44" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="E40" s="54" t="s">
+      <c r="D44" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="F40" s="54" t="s">
+      <c r="E44" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="G40" s="54" t="s">
+      <c r="F44" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="H40" s="54" t="s">
+      <c r="G44" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="I40" s="54" t="s">
+      <c r="H44" s="53" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="41" spans="1:25" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A41" s="23"/>
-      <c r="B41" s="80" t="s">
+      <c r="I44" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="C41" s="78" t="s">
+      <c r="K44" s="10"/>
+      <c r="M44" s="13"/>
+      <c r="N44" s="92"/>
+      <c r="O44" s="92"/>
+      <c r="P44" s="92"/>
+      <c r="Q44" s="92"/>
+      <c r="R44" s="92"/>
+      <c r="S44" s="92"/>
+      <c r="T44" s="92"/>
+      <c r="U44" s="92"/>
+      <c r="V44" s="92"/>
+      <c r="W44" s="13"/>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A45" s="23"/>
+      <c r="B45" s="74" t="s">
+        <v>55</v>
+      </c>
+      <c r="C45" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="D45" s="72" t="s">
         <v>94</v>
       </c>
-      <c r="D41" s="78" t="s">
-        <v>99</v>
-      </c>
-      <c r="E41" s="80" t="s">
-        <v>54</v>
-      </c>
-      <c r="F41" s="80" t="s">
+      <c r="E45" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="G41" s="80" t="s">
-        <v>75</v>
-      </c>
-      <c r="H41" s="79"/>
-      <c r="I41" s="79" t="s">
+      <c r="F45" s="74" t="s">
+        <v>52</v>
+      </c>
+      <c r="G45" s="74" t="s">
         <v>74</v>
       </c>
-      <c r="K41" s="88"/>
-    </row>
-    <row r="42" spans="1:25" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A42" s="23"/>
-      <c r="B42" s="80"/>
-      <c r="C42" s="78" t="s">
+      <c r="H45" s="73"/>
+      <c r="I45" s="73" t="s">
+        <v>73</v>
+      </c>
+      <c r="K45" s="82"/>
+      <c r="M45" s="13"/>
+      <c r="N45" s="92"/>
+      <c r="O45" s="92"/>
+      <c r="P45" s="92"/>
+      <c r="Q45" s="92"/>
+      <c r="R45" s="92"/>
+      <c r="S45" s="92"/>
+      <c r="T45" s="92"/>
+      <c r="U45" s="92"/>
+      <c r="V45" s="92"/>
+      <c r="W45" s="13"/>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A46" s="23"/>
+      <c r="B46" s="74"/>
+      <c r="C46" s="72" t="s">
+        <v>125</v>
+      </c>
+      <c r="D46" s="72" t="s">
+        <v>126</v>
+      </c>
+      <c r="E46" s="74" t="s">
+        <v>53</v>
+      </c>
+      <c r="F46" s="74" t="s">
+        <v>52</v>
+      </c>
+      <c r="G46" s="74" t="s">
+        <v>74</v>
+      </c>
+      <c r="H46" s="73"/>
+      <c r="I46" s="73" t="s">
+        <v>73</v>
+      </c>
+      <c r="K46" s="82"/>
+      <c r="M46" s="13"/>
+      <c r="N46" s="92"/>
+      <c r="O46" s="92"/>
+      <c r="P46" s="13"/>
+      <c r="Q46" s="92"/>
+      <c r="R46" s="92"/>
+      <c r="S46" s="92"/>
+      <c r="T46" s="92"/>
+      <c r="U46" s="92"/>
+      <c r="V46" s="92"/>
+      <c r="W46" s="13"/>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A47" s="23"/>
+      <c r="B47" s="74"/>
+      <c r="C47" s="72" t="s">
+        <v>124</v>
+      </c>
+      <c r="D47" s="72" t="s">
+        <v>127</v>
+      </c>
+      <c r="E47" s="74" t="s">
+        <v>53</v>
+      </c>
+      <c r="F47" s="74" t="s">
+        <v>52</v>
+      </c>
+      <c r="G47" s="74" t="s">
+        <v>74</v>
+      </c>
+      <c r="H47" s="73"/>
+      <c r="I47" s="73" t="s">
+        <v>73</v>
+      </c>
+      <c r="K47" s="10"/>
+      <c r="M47" s="13"/>
+      <c r="N47" s="92"/>
+      <c r="O47" s="92"/>
+      <c r="P47" s="92"/>
+      <c r="Q47" s="92"/>
+      <c r="R47" s="92"/>
+      <c r="S47" s="92"/>
+      <c r="T47" s="92"/>
+      <c r="U47" s="92"/>
+      <c r="V47" s="92"/>
+      <c r="W47" s="13"/>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A48" s="23"/>
+      <c r="B48" s="74"/>
+      <c r="C48" s="72" t="s">
+        <v>92</v>
+      </c>
+      <c r="D48" s="72" t="s">
         <v>95</v>
       </c>
-      <c r="D42" s="78" t="s">
-        <v>100</v>
-      </c>
-      <c r="E42" s="80" t="s">
-        <v>54</v>
-      </c>
-      <c r="F42" s="80" t="s">
+      <c r="E48" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="G42" s="80" t="s">
-        <v>75</v>
-      </c>
-      <c r="H42" s="79"/>
-      <c r="I42" s="79" t="s">
+      <c r="F48" s="74" t="s">
+        <v>52</v>
+      </c>
+      <c r="G48" s="74" t="s">
         <v>74</v>
       </c>
-      <c r="K42" s="89"/>
-    </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A43" s="23"/>
-      <c r="B43" s="80"/>
-      <c r="C43" s="78" t="s">
+      <c r="H48" s="73"/>
+      <c r="I48" s="73" t="s">
+        <v>73</v>
+      </c>
+      <c r="K48" s="81"/>
+      <c r="M48" s="13"/>
+      <c r="N48" s="92"/>
+      <c r="O48" s="92"/>
+      <c r="P48" s="92"/>
+      <c r="Q48" s="92"/>
+      <c r="R48" s="92"/>
+      <c r="S48" s="92"/>
+      <c r="T48" s="92"/>
+      <c r="U48" s="92"/>
+      <c r="V48" s="92"/>
+      <c r="W48" s="13"/>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A49" s="23"/>
+      <c r="B49" s="74"/>
+      <c r="C49" s="72" t="s">
+        <v>93</v>
+      </c>
+      <c r="D49" s="72" t="s">
         <v>96</v>
       </c>
-      <c r="D43" s="78" t="s">
-        <v>101</v>
-      </c>
-      <c r="E43" s="80" t="s">
-        <v>54</v>
-      </c>
-      <c r="F43" s="80" t="s">
+      <c r="E49" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="G43" s="80" t="s">
-        <v>75</v>
-      </c>
-      <c r="H43" s="79"/>
-      <c r="I43" s="79" t="s">
+      <c r="F49" s="74" t="s">
+        <v>52</v>
+      </c>
+      <c r="G49" s="74" t="s">
         <v>74</v>
       </c>
-      <c r="K43" s="10"/>
-    </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A44" s="23"/>
-      <c r="B44" s="80"/>
-      <c r="C44" s="78" t="s">
+      <c r="H49" s="73"/>
+      <c r="I49" s="73" t="s">
+        <v>73</v>
+      </c>
+      <c r="K49" s="81"/>
+      <c r="M49" s="13"/>
+      <c r="N49" s="92"/>
+      <c r="O49" s="92"/>
+      <c r="P49" s="92"/>
+      <c r="Q49" s="92"/>
+      <c r="R49" s="92"/>
+      <c r="S49" s="92"/>
+      <c r="T49" s="92"/>
+      <c r="U49" s="92"/>
+      <c r="V49" s="92"/>
+      <c r="W49" s="13"/>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A50" s="23"/>
+      <c r="B50" s="74"/>
+      <c r="C50" s="54" t="s">
+        <v>129</v>
+      </c>
+      <c r="D50" s="74" t="s">
+        <v>131</v>
+      </c>
+      <c r="E50" s="74" t="s">
+        <v>53</v>
+      </c>
+      <c r="F50" s="74" t="s">
+        <v>52</v>
+      </c>
+      <c r="G50" s="74" t="s">
+        <v>74</v>
+      </c>
+      <c r="H50" s="73"/>
+      <c r="I50" s="73" t="s">
+        <v>73</v>
+      </c>
+      <c r="K50" s="81"/>
+      <c r="M50" s="13"/>
+      <c r="N50" s="92"/>
+      <c r="O50" s="92"/>
+      <c r="P50" s="92"/>
+      <c r="Q50" s="92"/>
+      <c r="R50" s="92"/>
+      <c r="S50" s="92"/>
+      <c r="T50" s="92"/>
+      <c r="U50" s="92"/>
+      <c r="V50" s="92"/>
+      <c r="W50" s="13"/>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A51" s="23"/>
+      <c r="B51" s="74"/>
+      <c r="C51" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="D51" s="74" t="s">
+        <v>132</v>
+      </c>
+      <c r="E51" s="74" t="s">
+        <v>53</v>
+      </c>
+      <c r="F51" s="74" t="s">
+        <v>52</v>
+      </c>
+      <c r="G51" s="74" t="s">
+        <v>74</v>
+      </c>
+      <c r="H51" s="73"/>
+      <c r="I51" s="73" t="s">
+        <v>73</v>
+      </c>
+      <c r="K51" s="81"/>
+      <c r="L51" s="25"/>
+      <c r="M51" s="13"/>
+      <c r="N51" s="13"/>
+      <c r="O51" s="13"/>
+      <c r="P51" s="13"/>
+      <c r="Q51" s="13"/>
+      <c r="R51" s="13"/>
+      <c r="S51" s="13"/>
+      <c r="T51" s="13"/>
+      <c r="U51" s="13"/>
+      <c r="V51" s="13"/>
+      <c r="W51" s="13"/>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A52" s="23"/>
+      <c r="B52" s="54"/>
+      <c r="C52" s="72" t="s">
         <v>97</v>
       </c>
-      <c r="D44" s="78" t="s">
-        <v>102</v>
-      </c>
-      <c r="E44" s="80" t="s">
-        <v>54</v>
-      </c>
-      <c r="F44" s="80" t="s">
+      <c r="D52" s="74" t="s">
+        <v>98</v>
+      </c>
+      <c r="E52" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="G44" s="80" t="s">
-        <v>75</v>
-      </c>
-      <c r="H44" s="79"/>
-      <c r="I44" s="79" t="s">
+      <c r="F52" s="74" t="s">
+        <v>52</v>
+      </c>
+      <c r="G52" s="74" t="s">
         <v>74</v>
       </c>
-      <c r="K44" s="87"/>
-    </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A45" s="23"/>
-      <c r="B45" s="80"/>
-      <c r="C45" s="80" t="s">
-        <v>98</v>
-      </c>
-      <c r="D45" s="80" t="s">
-        <v>103</v>
-      </c>
-      <c r="E45" s="80" t="s">
-        <v>54</v>
-      </c>
-      <c r="F45" s="80" t="s">
-        <v>53</v>
-      </c>
-      <c r="G45" s="80" t="s">
-        <v>75</v>
-      </c>
-      <c r="H45" s="79"/>
-      <c r="I45" s="79" t="s">
-        <v>74</v>
-      </c>
-      <c r="K45" s="87"/>
-    </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A46" s="23"/>
-      <c r="B46" s="80"/>
-      <c r="C46" s="78" t="s">
-        <v>104</v>
-      </c>
-      <c r="D46" s="80" t="s">
-        <v>105</v>
-      </c>
-      <c r="E46" s="80" t="s">
-        <v>54</v>
-      </c>
-      <c r="F46" s="80" t="s">
-        <v>53</v>
-      </c>
-      <c r="G46" s="80" t="s">
-        <v>75</v>
-      </c>
-      <c r="H46" s="79"/>
-      <c r="I46" s="79" t="s">
-        <v>74</v>
-      </c>
-      <c r="K46" s="87"/>
-    </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A47" s="23"/>
-      <c r="B47" s="80"/>
-      <c r="K47" s="87"/>
-      <c r="L47" s="25"/>
-    </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A48" s="23"/>
-      <c r="B48" s="55"/>
-      <c r="C48" s="55"/>
-      <c r="D48" s="55"/>
-      <c r="E48" s="55"/>
-      <c r="F48" s="55"/>
-      <c r="G48" s="56"/>
-      <c r="H48" s="52"/>
-      <c r="I48" s="52"/>
-      <c r="K48" s="87"/>
-      <c r="L48" s="25"/>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="23"/>
-      <c r="B49" s="55"/>
-      <c r="C49" s="55"/>
-      <c r="D49" s="81"/>
-      <c r="E49" s="55"/>
-      <c r="F49" s="55"/>
-      <c r="G49" s="56"/>
-      <c r="H49" s="52"/>
-      <c r="I49" s="52"/>
-      <c r="K49" s="87"/>
-      <c r="L49" s="25"/>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="25"/>
-      <c r="B50" s="57"/>
-      <c r="C50" s="55"/>
-      <c r="D50" s="81"/>
-      <c r="E50" s="55"/>
-      <c r="F50" s="55"/>
-      <c r="G50" s="56"/>
-      <c r="H50" s="52"/>
-      <c r="I50" s="52"/>
-      <c r="K50" s="87"/>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="25"/>
-      <c r="B51" s="57"/>
-      <c r="C51" s="55"/>
-      <c r="D51" s="55"/>
-      <c r="E51" s="55"/>
-      <c r="F51" s="55"/>
-      <c r="G51" s="56"/>
-      <c r="H51" s="52"/>
-      <c r="I51" s="52"/>
-      <c r="K51" s="89"/>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="23"/>
-      <c r="B52" s="55"/>
-      <c r="C52" s="55"/>
-      <c r="D52" s="55"/>
-      <c r="E52" s="55"/>
-      <c r="F52" s="55"/>
-      <c r="G52" s="56"/>
-      <c r="H52" s="52"/>
-      <c r="I52" s="52"/>
-      <c r="K52" s="89"/>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H52" s="73"/>
+      <c r="I52" s="73" t="s">
+        <v>73</v>
+      </c>
+      <c r="K52" s="81"/>
+      <c r="L52" s="25"/>
+      <c r="M52" s="13"/>
+      <c r="N52" s="92"/>
+      <c r="O52" s="92"/>
+      <c r="P52" s="13"/>
+      <c r="Q52" s="92"/>
+      <c r="R52" s="92"/>
+      <c r="S52" s="92"/>
+      <c r="T52" s="92"/>
+      <c r="U52" s="92"/>
+      <c r="V52" s="92"/>
+      <c r="W52" s="13"/>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A53" s="23"/>
-      <c r="B53" s="55"/>
-      <c r="C53" s="55"/>
-      <c r="D53" s="55"/>
-      <c r="E53" s="55"/>
-      <c r="F53" s="55"/>
-      <c r="G53" s="56"/>
-      <c r="H53" s="52"/>
-      <c r="I53" s="52"/>
-      <c r="K53" s="10"/>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="23"/>
-      <c r="B54" s="24"/>
-      <c r="C54" s="23"/>
-      <c r="D54" s="23"/>
-      <c r="E54" s="24"/>
-      <c r="F54" s="24"/>
-      <c r="G54" s="25"/>
-      <c r="H54" s="26"/>
-      <c r="I54" s="26"/>
-      <c r="K54" s="87"/>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="23"/>
-      <c r="B55" s="24"/>
-      <c r="C55" s="23"/>
-      <c r="D55" s="23"/>
-      <c r="E55" s="24"/>
-      <c r="F55" s="24"/>
-      <c r="G55" s="25"/>
-      <c r="H55" s="26"/>
-      <c r="I55" s="26"/>
-      <c r="K55" s="87"/>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K56" s="87"/>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K57" s="87"/>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K58" s="87"/>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="58"/>
-      <c r="B59" s="58"/>
-      <c r="C59" s="59"/>
-      <c r="D59" s="59"/>
-      <c r="E59" s="59"/>
-      <c r="F59" s="59"/>
-      <c r="G59" s="59"/>
-      <c r="H59" s="59"/>
-      <c r="I59" s="59"/>
-      <c r="K59" s="87"/>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="53" t="s">
-        <v>52</v>
-      </c>
-      <c r="B60" s="53" t="s">
+      <c r="B53" s="54"/>
+      <c r="K53" s="81"/>
+      <c r="L53" s="25"/>
+      <c r="M53" s="13"/>
+      <c r="N53" s="92"/>
+      <c r="O53" s="92"/>
+      <c r="P53" s="13"/>
+      <c r="Q53" s="92"/>
+      <c r="R53" s="92"/>
+      <c r="S53" s="92"/>
+      <c r="T53" s="92"/>
+      <c r="U53" s="92"/>
+      <c r="V53" s="92"/>
+      <c r="W53" s="13"/>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A54" s="25"/>
+      <c r="B54" s="56"/>
+      <c r="C54" s="54"/>
+      <c r="D54" s="75"/>
+      <c r="E54" s="54"/>
+      <c r="F54" s="54"/>
+      <c r="G54" s="55"/>
+      <c r="H54" s="51"/>
+      <c r="I54" s="51"/>
+      <c r="K54" s="81"/>
+      <c r="M54" s="13"/>
+      <c r="N54" s="92"/>
+      <c r="O54" s="92"/>
+      <c r="P54" s="13"/>
+      <c r="Q54" s="92"/>
+      <c r="R54" s="92"/>
+      <c r="S54" s="92"/>
+      <c r="T54" s="92"/>
+      <c r="U54" s="92"/>
+      <c r="V54" s="92"/>
+      <c r="W54" s="13"/>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A55" s="25"/>
+      <c r="B55" s="56"/>
+      <c r="C55" s="54"/>
+      <c r="D55" s="54"/>
+      <c r="E55" s="54"/>
+      <c r="F55" s="54"/>
+      <c r="G55" s="55"/>
+      <c r="H55" s="51"/>
+      <c r="I55" s="51"/>
+      <c r="K55" s="82"/>
+      <c r="M55" s="13"/>
+      <c r="N55" s="92"/>
+      <c r="O55" s="92"/>
+      <c r="P55" s="13"/>
+      <c r="Q55" s="13"/>
+      <c r="R55" s="13"/>
+      <c r="S55" s="13"/>
+      <c r="T55" s="13"/>
+      <c r="U55" s="13"/>
+      <c r="V55" s="13"/>
+      <c r="W55" s="13"/>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A56" s="23"/>
+      <c r="B56" s="54"/>
+      <c r="C56" s="54"/>
+      <c r="D56" s="54"/>
+      <c r="E56" s="54"/>
+      <c r="F56" s="54"/>
+      <c r="G56" s="55"/>
+      <c r="H56" s="51"/>
+      <c r="I56" s="51"/>
+      <c r="K56" s="82"/>
+      <c r="M56" s="13"/>
+      <c r="N56" s="92"/>
+      <c r="O56" s="92"/>
+      <c r="P56" s="13"/>
+      <c r="Q56" s="13"/>
+      <c r="R56" s="13"/>
+      <c r="S56" s="13"/>
+      <c r="T56" s="13"/>
+      <c r="U56" s="13"/>
+      <c r="V56" s="13"/>
+      <c r="W56" s="13"/>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A57" s="23"/>
+      <c r="B57" s="54"/>
+      <c r="D57" s="54"/>
+      <c r="E57" s="54"/>
+      <c r="F57" s="54"/>
+      <c r="G57" s="55"/>
+      <c r="H57" s="51"/>
+      <c r="I57" s="51"/>
+      <c r="K57" s="10"/>
+      <c r="M57" s="13"/>
+      <c r="N57" s="13"/>
+      <c r="O57" s="13"/>
+      <c r="P57" s="13"/>
+      <c r="Q57" s="13"/>
+      <c r="R57" s="13"/>
+      <c r="S57" s="13"/>
+      <c r="T57" s="13"/>
+      <c r="U57" s="13"/>
+      <c r="V57" s="13"/>
+      <c r="W57" s="13"/>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A58" s="23"/>
+      <c r="B58" s="24"/>
+      <c r="D58" s="23"/>
+      <c r="E58" s="24"/>
+      <c r="F58" s="24"/>
+      <c r="G58" s="25"/>
+      <c r="H58" s="26"/>
+      <c r="I58" s="26"/>
+      <c r="K58" s="81"/>
+      <c r="M58" s="13"/>
+      <c r="N58" s="13"/>
+      <c r="O58" s="13"/>
+      <c r="P58" s="13"/>
+      <c r="Q58" s="13"/>
+      <c r="R58" s="13"/>
+      <c r="S58" s="13"/>
+      <c r="T58" s="13"/>
+      <c r="U58" s="13"/>
+      <c r="V58" s="13"/>
+      <c r="W58" s="13"/>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A59" s="23"/>
+      <c r="B59" s="24"/>
+      <c r="C59" s="23"/>
+      <c r="D59" s="23"/>
+      <c r="E59" s="24"/>
+      <c r="F59" s="24"/>
+      <c r="G59" s="25"/>
+      <c r="H59" s="26"/>
+      <c r="I59" s="26"/>
+      <c r="K59" s="81"/>
+      <c r="M59" s="13"/>
+      <c r="N59" s="13"/>
+      <c r="O59" s="13"/>
+      <c r="P59" s="13"/>
+      <c r="Q59" s="13"/>
+      <c r="R59" s="13"/>
+      <c r="S59" s="13"/>
+      <c r="T59" s="13"/>
+      <c r="U59" s="13"/>
+      <c r="V59" s="13"/>
+      <c r="W59" s="13"/>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="K60" s="81"/>
+      <c r="M60" s="13"/>
+      <c r="N60" s="13"/>
+      <c r="O60" s="13"/>
+      <c r="P60" s="13"/>
+      <c r="Q60" s="13"/>
+      <c r="R60" s="13"/>
+      <c r="S60" s="13"/>
+      <c r="T60" s="13"/>
+      <c r="U60" s="13"/>
+      <c r="V60" s="13"/>
+      <c r="W60" s="13"/>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="K61" s="81"/>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="K62" s="81"/>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A63" s="57"/>
+      <c r="B63" s="57"/>
+      <c r="C63" s="58"/>
+      <c r="D63" s="58"/>
+      <c r="E63" s="58"/>
+      <c r="F63" s="58"/>
+      <c r="G63" s="58"/>
+      <c r="H63" s="58"/>
+      <c r="I63" s="58"/>
+      <c r="K63" s="81"/>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A64" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="C60" s="53" t="s">
+      <c r="B64" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="D60" s="53" t="s">
+      <c r="C64" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="E60" s="53" t="s">
+      <c r="D64" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="E64" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="F64" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="G64" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="I64" s="52" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="B65" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="C65" s="60" t="s">
+        <v>41</v>
+      </c>
+      <c r="D65" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="F60" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="G60" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="H60" s="53" t="s">
-        <v>46</v>
-      </c>
-      <c r="I60" s="53" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="B61" s="61" t="s">
-        <v>43</v>
-      </c>
-      <c r="C61" s="61" t="s">
-        <v>42</v>
-      </c>
-      <c r="D61" s="61" t="s">
-        <v>41</v>
-      </c>
-      <c r="E61" s="61" t="s">
-        <v>40</v>
-      </c>
-      <c r="F61" s="61" t="s">
+      <c r="E65" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="G61" s="61" t="s">
+      <c r="F65" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="H61" s="61" t="s">
+      <c r="G65" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="I61" s="61" t="s">
+      <c r="H65" s="60" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" s="62" t="s">
+      <c r="I65" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="B62" s="63"/>
-      <c r="C62" s="62" t="s">
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="D62" s="64" t="s">
+      <c r="B66" s="62"/>
+      <c r="C66" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="E62" s="65" t="s">
-        <v>16</v>
-      </c>
-      <c r="F62" s="55"/>
-      <c r="G62" s="55"/>
-      <c r="H62" s="55"/>
-      <c r="I62" s="55"/>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" s="59"/>
-      <c r="B63" s="59"/>
-      <c r="C63" s="62" t="s">
+      <c r="D66" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="D63" s="64" t="s">
+      <c r="E66" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="F66" s="54"/>
+      <c r="G66" s="54"/>
+      <c r="H66" s="54"/>
+      <c r="I66" s="54"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="58"/>
+      <c r="B67" s="58"/>
+      <c r="C67" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="E63" s="65" t="s">
-        <v>16</v>
-      </c>
-      <c r="F63" s="55"/>
-      <c r="G63" s="59"/>
-      <c r="H63" s="59"/>
-      <c r="I63" s="59"/>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" s="59"/>
-      <c r="B64" s="59"/>
-      <c r="C64" s="62" t="s">
+      <c r="D67" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="D64" s="64" t="s">
+      <c r="E67" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="F67" s="54"/>
+      <c r="G67" s="58"/>
+      <c r="H67" s="58"/>
+      <c r="I67" s="58"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="58"/>
+      <c r="B68" s="58"/>
+      <c r="C68" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="E64" s="65" t="s">
-        <v>16</v>
-      </c>
-      <c r="F64" s="55"/>
-      <c r="G64" s="59"/>
-      <c r="H64" s="59"/>
-      <c r="I64" s="59"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="59"/>
-      <c r="B65" s="59"/>
-      <c r="C65" s="62" t="s">
+      <c r="D68" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="D65" s="64" t="s">
+      <c r="E68" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="F68" s="54"/>
+      <c r="G68" s="58"/>
+      <c r="H68" s="58"/>
+      <c r="I68" s="58"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="58"/>
+      <c r="B69" s="58"/>
+      <c r="C69" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="E65" s="65" t="s">
-        <v>16</v>
-      </c>
-      <c r="F65" s="55"/>
-      <c r="G65" s="59"/>
-      <c r="H65" s="59"/>
-      <c r="I65" s="59"/>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="59"/>
-      <c r="B66" s="59"/>
-      <c r="C66" s="62" t="s">
+      <c r="D69" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="D66" s="64" t="s">
+      <c r="E69" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="F69" s="54"/>
+      <c r="G69" s="58"/>
+      <c r="H69" s="58"/>
+      <c r="I69" s="58"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="58"/>
+      <c r="B70" s="58"/>
+      <c r="C70" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="E66" s="65" t="s">
-        <v>16</v>
-      </c>
-      <c r="F66" s="55"/>
-      <c r="G66" s="59"/>
-      <c r="H66" s="59"/>
-      <c r="I66" s="59"/>
-    </row>
-    <row r="84" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="D70" s="63" t="s">
+        <v>24</v>
+      </c>
+      <c r="E70" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="F70" s="54"/>
+      <c r="G70" s="58"/>
+      <c r="H70" s="58"/>
+      <c r="I70" s="58"/>
+    </row>
+    <row r="88" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -9215,8 +9662,8 @@
   </sheetPr>
   <dimension ref="A2:V63"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9230,7 +9677,7 @@
     <col min="8" max="9" width="9.140625" style="19"/>
     <col min="10" max="10" width="17.42578125" style="19" customWidth="1"/>
     <col min="11" max="11" width="10" style="19" customWidth="1"/>
-    <col min="12" max="12" width="13.85546875" style="19" customWidth="1"/>
+    <col min="12" max="12" width="50.42578125" style="19" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.5703125" style="19" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="9.140625" style="19"/>
     <col min="16" max="16" width="9.5703125" style="19" bestFit="1" customWidth="1"/>
@@ -9239,21 +9686,21 @@
   <sheetData>
     <row r="2" spans="3:22" ht="14.25" x14ac:dyDescent="0.45">
       <c r="G2" s="27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="3:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="20" t="s">
         <v>22</v>
-      </c>
-      <c r="F3" s="20" t="s">
-        <v>23</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>0</v>
@@ -9265,46 +9712,46 @@
         <v>2</v>
       </c>
       <c r="J3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="L3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="M3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="N3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="O3" s="6" t="s">
         <v>8</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>9</v>
       </c>
       <c r="P3" s="6"/>
       <c r="Q3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="R3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="R3" s="6" t="s">
+      <c r="S3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="S3" s="6" t="s">
+      <c r="T3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="T3" s="6" t="s">
+      <c r="U3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="U3" s="6" t="s">
-        <v>14</v>
-      </c>
       <c r="V3" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="3:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C4" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
@@ -9327,42 +9774,42 @@
     </row>
     <row r="5" spans="3:22" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C5" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
       <c r="K5" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="L5" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="L5" s="11" t="s">
+      <c r="M5" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="M5" s="11" t="s">
-        <v>78</v>
-      </c>
       <c r="N5" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O5" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P5" s="11"/>
       <c r="Q5" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R5" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S5" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="T5" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U5" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="3:22" ht="14.25" x14ac:dyDescent="0.45">
@@ -9374,11 +9821,11 @@
         <f>D33</f>
         <v>Commercial heating technology  - direct eletrical heating - new 1</v>
       </c>
-      <c r="E6" s="72" t="s">
-        <v>111</v>
-      </c>
-      <c r="F6" s="87" t="s">
-        <v>119</v>
+      <c r="E6" s="66" t="s">
+        <v>103</v>
+      </c>
+      <c r="F6" s="81" t="s">
+        <v>110</v>
       </c>
       <c r="G6" s="16">
         <v>2015</v>
@@ -9544,11 +9991,11 @@
         <f>D34</f>
         <v>Commercial heating technology  - Heat pump, air-to-air - new 2</v>
       </c>
-      <c r="E10" s="72" t="s">
-        <v>111</v>
-      </c>
-      <c r="F10" s="87" t="s">
-        <v>119</v>
+      <c r="E10" s="66" t="s">
+        <v>103</v>
+      </c>
+      <c r="F10" s="81" t="s">
+        <v>110</v>
       </c>
       <c r="G10" s="16">
         <v>2015</v>
@@ -9556,19 +10003,19 @@
       <c r="H10" s="16">
         <v>2015</v>
       </c>
-      <c r="I10" s="91">
+      <c r="I10" s="84">
         <v>2.8</v>
       </c>
       <c r="J10" s="29">
         <v>20</v>
       </c>
-      <c r="K10" s="71">
+      <c r="K10" s="65">
         <v>4.0230000000000006</v>
       </c>
       <c r="L10" s="2">
         <v>6.2580000000000011E-2</v>
       </c>
-      <c r="M10" s="50">
+      <c r="M10" s="49">
         <v>0</v>
       </c>
       <c r="N10" s="33">
@@ -9599,17 +10046,17 @@
         <v>2020</v>
       </c>
       <c r="H11" s="16"/>
-      <c r="I11" s="96">
+      <c r="I11" s="88">
         <v>2.8</v>
       </c>
       <c r="J11" s="29"/>
-      <c r="K11" s="71">
+      <c r="K11" s="65">
         <v>3.8740000000000001</v>
       </c>
       <c r="L11" s="2">
         <v>6.2580000000000011E-2</v>
       </c>
-      <c r="M11" s="50">
+      <c r="M11" s="49">
         <v>0</v>
       </c>
       <c r="N11" s="29"/>
@@ -9636,17 +10083,17 @@
         <v>2030</v>
       </c>
       <c r="H12" s="16"/>
-      <c r="I12" s="91">
+      <c r="I12" s="84">
         <v>2.8</v>
       </c>
       <c r="J12" s="29"/>
-      <c r="K12" s="71">
+      <c r="K12" s="65">
         <v>3.5760000000000001</v>
       </c>
       <c r="L12" s="2">
         <v>6.2580000000000011E-2</v>
       </c>
-      <c r="M12" s="50">
+      <c r="M12" s="49">
         <v>0</v>
       </c>
       <c r="N12" s="29"/>
@@ -9673,17 +10120,17 @@
         <v>2050</v>
       </c>
       <c r="H13" s="16"/>
-      <c r="I13" s="91">
+      <c r="I13" s="84">
         <v>2.8</v>
       </c>
       <c r="J13" s="29"/>
-      <c r="K13" s="71">
+      <c r="K13" s="65">
         <v>3.4269999999999996</v>
       </c>
       <c r="L13" s="2">
         <v>6.2580000000000011E-2</v>
       </c>
-      <c r="M13" s="50">
+      <c r="M13" s="49">
         <v>0</v>
       </c>
       <c r="N13" s="29"/>
@@ -9705,20 +10152,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="3:22" s="72" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="C14" s="90" t="str">
+    <row r="14" spans="3:22" s="66" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="C14" s="83" t="str">
         <f>C36</f>
         <v>CCTACN1</v>
       </c>
-      <c r="D14" s="90" t="str">
+      <c r="D14" s="83" t="str">
         <f>D36</f>
         <v>Commercial cooling technology  - AC - new 1</v>
       </c>
-      <c r="E14" s="72" t="s">
-        <v>111</v>
-      </c>
-      <c r="F14" s="87" t="s">
-        <v>112</v>
+      <c r="E14" s="66" t="s">
+        <v>103</v>
+      </c>
+      <c r="F14" s="81" t="s">
+        <v>104</v>
       </c>
       <c r="G14" s="34">
         <v>2015</v>
@@ -9726,13 +10173,13 @@
       <c r="H14" s="34">
         <v>2015</v>
       </c>
-      <c r="I14" s="91">
+      <c r="I14" s="84">
         <v>0.8</v>
       </c>
-      <c r="J14" s="41">
+      <c r="J14" s="40">
         <v>10</v>
       </c>
-      <c r="K14" s="72">
+      <c r="K14" s="66">
         <v>3.600833333333334</v>
       </c>
       <c r="L14" s="2">
@@ -9741,13 +10188,13 @@
       <c r="M14" s="34">
         <v>0</v>
       </c>
-      <c r="N14" s="85">
+      <c r="N14" s="79">
         <v>3.1536000000000002E-2</v>
       </c>
-      <c r="O14" s="92">
+      <c r="O14" s="85">
         <v>0.2</v>
       </c>
-      <c r="P14" s="93"/>
+      <c r="P14" s="86"/>
       <c r="Q14" s="34">
         <v>0</v>
       </c>
@@ -9760,22 +10207,22 @@
       <c r="T14" s="34">
         <v>0</v>
       </c>
-      <c r="U14" s="94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="3:22" s="72" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="U14" s="87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="3:22" s="66" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="G15" s="34">
         <v>2020</v>
       </c>
       <c r="H15" s="34"/>
-      <c r="I15" s="91">
+      <c r="I15" s="84">
         <v>0.81</v>
       </c>
-      <c r="J15" s="41">
+      <c r="J15" s="40">
         <v>11</v>
       </c>
-      <c r="K15" s="72">
+      <c r="K15" s="66">
         <v>3.9112500000000003</v>
       </c>
       <c r="L15" s="2">
@@ -9784,13 +10231,13 @@
       <c r="M15" s="34">
         <v>0</v>
       </c>
-      <c r="N15" s="85">
+      <c r="N15" s="79">
         <v>3.1536000000000002E-2</v>
       </c>
-      <c r="O15" s="92">
+      <c r="O15" s="85">
         <v>0.2</v>
       </c>
-      <c r="P15" s="93"/>
+      <c r="P15" s="86"/>
       <c r="Q15" s="34">
         <v>0</v>
       </c>
@@ -9803,22 +10250,22 @@
       <c r="T15" s="34">
         <v>0</v>
       </c>
-      <c r="U15" s="94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="3:22" s="72" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="U15" s="87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="3:22" s="66" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="G16" s="34">
         <v>2030</v>
       </c>
       <c r="H16" s="34"/>
-      <c r="I16" s="91">
+      <c r="I16" s="84">
         <v>0.82</v>
       </c>
-      <c r="J16" s="41">
+      <c r="J16" s="40">
         <v>12</v>
       </c>
-      <c r="K16" s="72">
+      <c r="K16" s="66">
         <v>4.8425000000000002</v>
       </c>
       <c r="L16" s="2">
@@ -9827,13 +10274,13 @@
       <c r="M16" s="34">
         <v>0</v>
       </c>
-      <c r="N16" s="85">
+      <c r="N16" s="79">
         <v>3.1536000000000002E-2</v>
       </c>
-      <c r="O16" s="92">
+      <c r="O16" s="85">
         <v>0.2</v>
       </c>
-      <c r="P16" s="93"/>
+      <c r="P16" s="86"/>
       <c r="Q16" s="34">
         <v>0</v>
       </c>
@@ -9846,22 +10293,22 @@
       <c r="T16" s="34">
         <v>0</v>
       </c>
-      <c r="U16" s="94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" s="72" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="U16" s="87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" s="66" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="G17" s="34">
         <v>2050</v>
       </c>
       <c r="H17" s="34"/>
-      <c r="I17" s="91">
+      <c r="I17" s="84">
         <v>0.83</v>
       </c>
-      <c r="J17" s="41">
+      <c r="J17" s="40">
         <v>13</v>
       </c>
-      <c r="K17" s="72">
+      <c r="K17" s="66">
         <v>4.8425000000000002</v>
       </c>
       <c r="L17" s="2">
@@ -9870,13 +10317,13 @@
       <c r="M17" s="34">
         <v>0</v>
       </c>
-      <c r="N17" s="85">
+      <c r="N17" s="79">
         <v>3.1536000000000002E-2</v>
       </c>
-      <c r="O17" s="92">
+      <c r="O17" s="85">
         <v>0.2</v>
       </c>
-      <c r="P17" s="93"/>
+      <c r="P17" s="86"/>
       <c r="Q17" s="34">
         <v>0</v>
       </c>
@@ -9889,45 +10336,45 @@
       <c r="T17" s="34">
         <v>0</v>
       </c>
-      <c r="U17" s="94">
+      <c r="U17" s="87">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:22" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C18" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D18" s="1"/>
       <c r="G18" s="34"/>
       <c r="H18" s="34"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="47"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
-      <c r="M18" s="48"/>
-      <c r="N18" s="82"/>
-      <c r="O18" s="82"/>
-      <c r="P18" s="47"/>
-      <c r="Q18" s="47"/>
-      <c r="R18" s="47"/>
-      <c r="S18" s="47"/>
-      <c r="T18" s="47"/>
-      <c r="U18" s="47"/>
+      <c r="M18" s="47"/>
+      <c r="N18" s="76"/>
+      <c r="O18" s="76"/>
+      <c r="P18" s="46"/>
+      <c r="Q18" s="46"/>
+      <c r="R18" s="46"/>
+      <c r="S18" s="46"/>
+      <c r="T18" s="46"/>
+      <c r="U18" s="46"/>
     </row>
     <row r="19" spans="1:22" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="C19" s="73" t="str">
+      <c r="C19" s="67" t="str">
         <f>C35</f>
         <v>CHTHCEBN1</v>
       </c>
-      <c r="D19" s="73" t="str">
+      <c r="D19" s="67" t="str">
         <f>D35</f>
         <v>Commercial heating technology  - district heat - new 1</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="G19" s="14">
         <v>2012</v>
@@ -9936,12 +10383,12 @@
         <v>2012</v>
       </c>
       <c r="I19" s="14">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="J19" s="14">
         <v>30</v>
       </c>
-      <c r="K19" s="83">
+      <c r="K19" s="77">
         <v>1.1834865368967082</v>
       </c>
       <c r="L19" s="2">
@@ -9950,10 +10397,10 @@
       <c r="M19" s="34">
         <v>0</v>
       </c>
-      <c r="N19" s="44">
+      <c r="N19" s="43">
         <v>3.1536000000000002E-2</v>
       </c>
-      <c r="O19" s="45">
+      <c r="O19" s="44">
         <v>0.2</v>
       </c>
       <c r="P19" s="12"/>
@@ -9963,331 +10410,422 @@
       <c r="T19" s="12"/>
       <c r="U19" s="12"/>
       <c r="V19" s="19" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" s="74" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="C20" s="73"/>
-      <c r="D20" s="73"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="75"/>
-      <c r="L20" s="75"/>
-      <c r="M20" s="75"/>
-      <c r="N20" s="46"/>
-      <c r="O20" s="76"/>
-    </row>
-    <row r="21" spans="1:22" s="74" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="C21" s="73"/>
-      <c r="D21" s="73"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="42"/>
-      <c r="K21" s="75"/>
-      <c r="L21" s="75"/>
-      <c r="M21" s="75"/>
-      <c r="N21" s="46"/>
-      <c r="O21" s="76"/>
-    </row>
-    <row r="22" spans="1:22" s="74" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="C22" s="73"/>
-      <c r="D22" s="73"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="42"/>
-      <c r="L22" s="75"/>
-      <c r="M22" s="75"/>
-    </row>
-    <row r="23" spans="1:22" s="74" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="C23" s="73"/>
-      <c r="D23" s="73"/>
-      <c r="J23" s="42"/>
-      <c r="K23" s="42"/>
-      <c r="L23" s="75"/>
-      <c r="M23" s="75"/>
-    </row>
-    <row r="24" spans="1:22" s="74" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="C24" s="73"/>
-      <c r="D24" s="73"/>
-      <c r="E24" s="75"/>
-      <c r="F24" s="46"/>
-      <c r="G24" s="76"/>
-      <c r="J24" s="42"/>
-      <c r="K24" s="42"/>
-      <c r="L24" s="75"/>
-      <c r="M24" s="75"/>
-    </row>
-    <row r="25" spans="1:22" s="74" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="C25" s="77"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="75"/>
-      <c r="F25" s="46"/>
-      <c r="G25" s="76"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="75"/>
-      <c r="M25" s="75"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" s="68" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="C20" s="67"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="69"/>
+      <c r="L20" s="69"/>
+      <c r="M20" s="69"/>
+      <c r="N20" s="45"/>
+      <c r="O20" s="70"/>
+    </row>
+    <row r="21" spans="1:22" s="68" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="C21" s="67"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="69"/>
+      <c r="L21" s="69"/>
+      <c r="M21" s="69"/>
+      <c r="N21" s="45"/>
+      <c r="O21" s="70"/>
+    </row>
+    <row r="22" spans="1:22" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="67"/>
+      <c r="D22" s="67"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="69"/>
+      <c r="M22" s="69"/>
+    </row>
+    <row r="23" spans="1:22" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="67"/>
+      <c r="D23" s="67"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="90" t="s">
+        <v>103</v>
+      </c>
+      <c r="L23" s="89" t="s">
+        <v>116</v>
+      </c>
+      <c r="M23" s="89" t="s">
+        <v>53</v>
+      </c>
+      <c r="N23" s="89"/>
+      <c r="O23" s="89" t="s">
+        <v>74</v>
+      </c>
+      <c r="P23" s="89"/>
+      <c r="Q23" s="89" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="67"/>
+      <c r="D24" s="67"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="70"/>
+      <c r="J24" s="41"/>
+      <c r="K24" s="89" t="s">
+        <v>117</v>
+      </c>
+      <c r="L24" s="89" t="s">
+        <v>116</v>
+      </c>
+      <c r="M24" s="89" t="s">
+        <v>53</v>
+      </c>
+      <c r="N24" s="89"/>
+      <c r="O24" s="89" t="s">
+        <v>74</v>
+      </c>
+      <c r="P24" s="89"/>
+      <c r="Q24" s="89" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="71"/>
+      <c r="D25" s="67"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="70"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="90" t="s">
+        <v>105</v>
+      </c>
+      <c r="L25" s="89" t="s">
+        <v>118</v>
+      </c>
+      <c r="M25" s="89" t="s">
+        <v>53</v>
+      </c>
+      <c r="N25" s="89"/>
+      <c r="O25" s="89" t="s">
+        <v>74</v>
+      </c>
+      <c r="P25" s="89"/>
+      <c r="Q25" s="89"/>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="K26" s="90" t="s">
+        <v>90</v>
+      </c>
+      <c r="L26" s="89" t="s">
+        <v>119</v>
+      </c>
+      <c r="M26" s="89" t="s">
+        <v>53</v>
+      </c>
+      <c r="N26" s="89"/>
+      <c r="O26" s="89" t="s">
+        <v>74</v>
+      </c>
+      <c r="P26" s="89"/>
+      <c r="Q26" s="89"/>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="K27" s="90" t="s">
+        <v>110</v>
+      </c>
+      <c r="L27" s="89" t="s">
+        <v>120</v>
+      </c>
+      <c r="M27" s="89" t="s">
+        <v>53</v>
+      </c>
+      <c r="N27" s="89"/>
+      <c r="O27" s="89" t="s">
+        <v>74</v>
+      </c>
+      <c r="P27" s="89"/>
+      <c r="Q27" s="89"/>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="K28" s="90" t="s">
+        <v>104</v>
+      </c>
+      <c r="L28" s="89" t="s">
+        <v>121</v>
+      </c>
+      <c r="M28" s="89" t="s">
+        <v>53</v>
+      </c>
+      <c r="N28" s="89"/>
+      <c r="O28" s="89" t="s">
+        <v>74</v>
+      </c>
+      <c r="P28" s="89"/>
+      <c r="Q28" s="89"/>
     </row>
     <row r="30" spans="1:22" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A30" s="23"/>
-      <c r="B30" s="51" t="s">
-        <v>72</v>
-      </c>
-      <c r="C30" s="52"/>
-      <c r="D30" s="52"/>
-      <c r="E30" s="52"/>
-      <c r="F30" s="52"/>
-      <c r="G30" s="52"/>
-      <c r="H30" s="52"/>
-      <c r="I30" s="52"/>
+      <c r="B30" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="51"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="51"/>
+      <c r="G30" s="51"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="51"/>
     </row>
     <row r="31" spans="1:22" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A31" s="23"/>
-      <c r="B31" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="C31" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="D31" s="53" t="s">
+      <c r="B31" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="E31" s="53" t="s">
+      <c r="C31" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="F31" s="53" t="s">
+      <c r="E31" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="G31" s="53" t="s">
+      <c r="F31" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="H31" s="53" t="s">
+      <c r="G31" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="I31" s="53" t="s">
+      <c r="H31" s="52" t="s">
         <v>65</v>
+      </c>
+      <c r="I31" s="52" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:22" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="23"/>
-      <c r="B32" s="54" t="s">
-        <v>64</v>
-      </c>
-      <c r="C32" s="54" t="s">
+      <c r="B32" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="D32" s="54" t="s">
+      <c r="C32" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="E32" s="54" t="s">
+      <c r="D32" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="F32" s="54" t="s">
+      <c r="E32" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="G32" s="54" t="s">
+      <c r="F32" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="H32" s="54" t="s">
+      <c r="G32" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="I32" s="54" t="s">
+      <c r="H32" s="53" t="s">
         <v>57</v>
+      </c>
+      <c r="I32" s="53" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="23"/>
-      <c r="B33" s="80" t="s">
-        <v>56</v>
-      </c>
-      <c r="C33" s="78" t="s">
-        <v>107</v>
-      </c>
-      <c r="D33" s="78" t="s">
-        <v>114</v>
-      </c>
-      <c r="E33" s="80" t="s">
-        <v>54</v>
-      </c>
-      <c r="F33" s="80" t="s">
+      <c r="B33" s="74" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" s="72" t="s">
+        <v>99</v>
+      </c>
+      <c r="D33" s="72" t="s">
+        <v>106</v>
+      </c>
+      <c r="E33" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="G33" s="80" t="s">
-        <v>75</v>
-      </c>
-      <c r="H33" s="79"/>
-      <c r="I33" s="79" t="s">
+      <c r="F33" s="74" t="s">
+        <v>52</v>
+      </c>
+      <c r="G33" s="74" t="s">
         <v>74</v>
+      </c>
+      <c r="H33" s="73"/>
+      <c r="I33" s="73" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="23"/>
-      <c r="B34" s="80"/>
-      <c r="C34" s="78" t="s">
-        <v>108</v>
-      </c>
-      <c r="D34" s="78" t="s">
-        <v>115</v>
-      </c>
-      <c r="E34" s="80" t="s">
-        <v>54</v>
-      </c>
-      <c r="F34" s="80" t="s">
+      <c r="B34" s="74"/>
+      <c r="C34" s="72" t="s">
+        <v>100</v>
+      </c>
+      <c r="D34" s="72" t="s">
+        <v>107</v>
+      </c>
+      <c r="E34" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="G34" s="80" t="s">
-        <v>75</v>
-      </c>
-      <c r="H34" s="79"/>
-      <c r="I34" s="79" t="s">
+      <c r="F34" s="74" t="s">
+        <v>52</v>
+      </c>
+      <c r="G34" s="74" t="s">
         <v>74</v>
+      </c>
+      <c r="H34" s="73"/>
+      <c r="I34" s="73" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="23"/>
-      <c r="B35" s="80"/>
-      <c r="C35" s="80" t="s">
-        <v>109</v>
-      </c>
-      <c r="D35" s="80" t="s">
-        <v>116</v>
-      </c>
-      <c r="E35" s="80" t="s">
-        <v>54</v>
-      </c>
-      <c r="F35" s="80" t="s">
+      <c r="B35" s="74"/>
+      <c r="C35" s="74" t="s">
+        <v>101</v>
+      </c>
+      <c r="D35" s="74" t="s">
+        <v>108</v>
+      </c>
+      <c r="E35" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="G35" s="80" t="s">
-        <v>75</v>
-      </c>
-      <c r="H35" s="79"/>
-      <c r="I35" s="79" t="s">
+      <c r="F35" s="74" t="s">
+        <v>52</v>
+      </c>
+      <c r="G35" s="74" t="s">
         <v>74</v>
+      </c>
+      <c r="H35" s="73"/>
+      <c r="I35" s="73" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="23"/>
-      <c r="B36" s="80"/>
-      <c r="C36" s="78" t="s">
-        <v>110</v>
-      </c>
-      <c r="D36" s="80" t="s">
-        <v>117</v>
-      </c>
-      <c r="E36" s="80" t="s">
-        <v>54</v>
-      </c>
-      <c r="F36" s="80" t="s">
+      <c r="B36" s="74"/>
+      <c r="C36" s="72" t="s">
+        <v>102</v>
+      </c>
+      <c r="D36" s="74" t="s">
+        <v>109</v>
+      </c>
+      <c r="E36" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="G36" s="80" t="s">
-        <v>75</v>
-      </c>
-      <c r="H36" s="79"/>
-      <c r="I36" s="79" t="s">
+      <c r="F36" s="74" t="s">
+        <v>52</v>
+      </c>
+      <c r="G36" s="74" t="s">
         <v>74</v>
+      </c>
+      <c r="H36" s="73"/>
+      <c r="I36" s="73" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="23"/>
-      <c r="B37" s="80"/>
+      <c r="B37" s="74"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="23"/>
-      <c r="B38" s="80"/>
-      <c r="C38" s="78"/>
-      <c r="D38" s="78"/>
-      <c r="E38" s="80"/>
-      <c r="F38" s="80"/>
-      <c r="G38" s="80"/>
-      <c r="H38" s="79"/>
-      <c r="I38" s="79"/>
+      <c r="B38" s="74"/>
+      <c r="C38" s="72"/>
+      <c r="D38" s="72"/>
+      <c r="E38" s="74"/>
+      <c r="F38" s="74"/>
+      <c r="G38" s="74"/>
+      <c r="H38" s="73"/>
+      <c r="I38" s="73"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="23"/>
-      <c r="B39" s="80"/>
+      <c r="B39" s="74"/>
       <c r="L39" s="25"/>
       <c r="N39" s="28"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="23"/>
-      <c r="B40" s="55"/>
-      <c r="C40" s="55"/>
-      <c r="D40" s="55"/>
-      <c r="E40" s="55"/>
-      <c r="F40" s="55"/>
-      <c r="G40" s="56"/>
-      <c r="H40" s="52"/>
-      <c r="I40" s="52"/>
+      <c r="B40" s="54"/>
+      <c r="C40" s="54"/>
+      <c r="D40" s="54"/>
+      <c r="E40" s="54"/>
+      <c r="F40" s="54"/>
+      <c r="G40" s="55"/>
+      <c r="H40" s="51"/>
+      <c r="I40" s="51"/>
       <c r="L40" s="25"/>
       <c r="N40" s="28"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="23"/>
-      <c r="B41" s="55"/>
-      <c r="C41" s="55"/>
-      <c r="D41" s="55"/>
-      <c r="E41" s="55"/>
-      <c r="F41" s="55"/>
-      <c r="G41" s="56"/>
-      <c r="H41" s="52"/>
-      <c r="I41" s="52"/>
+      <c r="B41" s="54"/>
+      <c r="C41" s="54"/>
+      <c r="D41" s="54"/>
+      <c r="E41" s="54"/>
+      <c r="F41" s="54"/>
+      <c r="G41" s="55"/>
+      <c r="H41" s="51"/>
+      <c r="I41" s="51"/>
       <c r="L41" s="25"/>
       <c r="N41" s="28"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="23"/>
-      <c r="B42" s="55"/>
-      <c r="C42" s="86"/>
-      <c r="D42" s="55"/>
-      <c r="E42" s="55"/>
-      <c r="F42" s="55"/>
-      <c r="G42" s="56"/>
-      <c r="H42" s="52"/>
-      <c r="I42" s="52"/>
+      <c r="B42" s="54"/>
+      <c r="C42" s="80"/>
+      <c r="D42" s="54"/>
+      <c r="E42" s="54"/>
+      <c r="F42" s="54"/>
+      <c r="G42" s="55"/>
+      <c r="H42" s="51"/>
+      <c r="I42" s="51"/>
       <c r="N42" s="28"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="23"/>
-      <c r="B43" s="55"/>
-      <c r="C43" s="86"/>
-      <c r="D43" s="55"/>
-      <c r="E43" s="55"/>
-      <c r="F43" s="55"/>
-      <c r="G43" s="56"/>
-      <c r="H43" s="52"/>
-      <c r="I43" s="52"/>
+      <c r="B43" s="54"/>
+      <c r="C43" s="80"/>
+      <c r="D43" s="54"/>
+      <c r="E43" s="54"/>
+      <c r="F43" s="54"/>
+      <c r="G43" s="55"/>
+      <c r="H43" s="51"/>
+      <c r="I43" s="51"/>
       <c r="N43" s="28"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="23"/>
-      <c r="B44" s="55"/>
-      <c r="C44" s="55"/>
-      <c r="D44" s="55"/>
-      <c r="E44" s="55"/>
-      <c r="F44" s="55"/>
-      <c r="G44" s="56"/>
-      <c r="H44" s="52"/>
-      <c r="I44" s="52"/>
+      <c r="B44" s="54"/>
+      <c r="C44" s="54"/>
+      <c r="D44" s="54"/>
+      <c r="E44" s="54"/>
+      <c r="F44" s="54"/>
+      <c r="G44" s="55"/>
+      <c r="H44" s="51"/>
+      <c r="I44" s="51"/>
       <c r="N44" s="28"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="23"/>
-      <c r="B45" s="55"/>
-      <c r="C45" s="55"/>
-      <c r="D45" s="55"/>
-      <c r="E45" s="55"/>
-      <c r="F45" s="55"/>
-      <c r="G45" s="56"/>
-      <c r="H45" s="52"/>
-      <c r="I45" s="52"/>
+      <c r="B45" s="54"/>
+      <c r="C45" s="54"/>
+      <c r="D45" s="54"/>
+      <c r="E45" s="54"/>
+      <c r="F45" s="54"/>
+      <c r="G45" s="55"/>
+      <c r="H45" s="51"/>
+      <c r="I45" s="51"/>
       <c r="N45" s="28"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
@@ -10315,166 +10853,166 @@
       <c r="N47" s="28"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="58"/>
-      <c r="B51" s="58"/>
-      <c r="C51" s="59"/>
-      <c r="D51" s="59"/>
-      <c r="E51" s="59"/>
-      <c r="F51" s="59"/>
-      <c r="G51" s="59"/>
-      <c r="H51" s="59"/>
-      <c r="I51" s="59"/>
+      <c r="A51" s="57"/>
+      <c r="B51" s="57"/>
+      <c r="C51" s="58"/>
+      <c r="D51" s="58"/>
+      <c r="E51" s="58"/>
+      <c r="F51" s="58"/>
+      <c r="G51" s="58"/>
+      <c r="H51" s="58"/>
+      <c r="I51" s="58"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="53" t="s">
-        <v>52</v>
-      </c>
-      <c r="B52" s="53" t="s">
+      <c r="A52" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="C52" s="53" t="s">
+      <c r="B52" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="D52" s="53" t="s">
+      <c r="C52" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="E52" s="53" t="s">
+      <c r="D52" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="E52" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="F52" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="G52" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="I52" s="52" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="B53" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="C53" s="60" t="s">
+        <v>41</v>
+      </c>
+      <c r="D53" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="F52" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="G52" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="H52" s="53" t="s">
-        <v>46</v>
-      </c>
-      <c r="I52" s="53" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="B53" s="61" t="s">
-        <v>43</v>
-      </c>
-      <c r="C53" s="61" t="s">
-        <v>42</v>
-      </c>
-      <c r="D53" s="61" t="s">
-        <v>41</v>
-      </c>
-      <c r="E53" s="61" t="s">
-        <v>40</v>
-      </c>
-      <c r="F53" s="61" t="s">
+      <c r="E53" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="G53" s="61" t="s">
+      <c r="F53" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="H53" s="61" t="s">
+      <c r="G53" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="I53" s="61" t="s">
+      <c r="H53" s="60" t="s">
         <v>36</v>
       </c>
+      <c r="I53" s="60" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="62" t="s">
-        <v>35</v>
-      </c>
-      <c r="B54" s="63"/>
-      <c r="C54" s="62" t="s">
+      <c r="A54" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="D54" s="64" t="s">
-        <v>33</v>
-      </c>
-      <c r="E54" s="65" t="s">
-        <v>16</v>
-      </c>
-      <c r="F54" s="55"/>
-      <c r="G54" s="55"/>
-      <c r="H54" s="55"/>
-      <c r="I54" s="55"/>
+      <c r="B54" s="62"/>
+      <c r="C54" s="61" t="s">
+        <v>133</v>
+      </c>
+      <c r="D54" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="E54" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="F54" s="54"/>
+      <c r="G54" s="54"/>
+      <c r="H54" s="54"/>
+      <c r="I54" s="54"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="59"/>
-      <c r="B55" s="59"/>
-      <c r="C55" s="62" t="s">
-        <v>32</v>
-      </c>
-      <c r="D55" s="64" t="s">
-        <v>31</v>
-      </c>
-      <c r="E55" s="65" t="s">
-        <v>16</v>
-      </c>
-      <c r="F55" s="55"/>
-      <c r="G55" s="59"/>
-      <c r="H55" s="59"/>
-      <c r="I55" s="59"/>
+      <c r="A55" s="58"/>
+      <c r="B55" s="58"/>
+      <c r="C55" s="61" t="s">
+        <v>134</v>
+      </c>
+      <c r="D55" s="63" t="s">
+        <v>139</v>
+      </c>
+      <c r="E55" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="F55" s="54"/>
+      <c r="G55" s="58"/>
+      <c r="H55" s="58"/>
+      <c r="I55" s="58"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="59"/>
-      <c r="B56" s="59"/>
-      <c r="C56" s="62" t="s">
-        <v>30</v>
-      </c>
-      <c r="D56" s="64" t="s">
-        <v>29</v>
-      </c>
-      <c r="E56" s="65" t="s">
-        <v>16</v>
-      </c>
-      <c r="F56" s="55"/>
-      <c r="G56" s="59"/>
-      <c r="H56" s="59"/>
-      <c r="I56" s="59"/>
+      <c r="A56" s="58"/>
+      <c r="B56" s="58"/>
+      <c r="C56" s="61" t="s">
+        <v>135</v>
+      </c>
+      <c r="D56" s="63" t="s">
+        <v>140</v>
+      </c>
+      <c r="E56" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="F56" s="54"/>
+      <c r="G56" s="58"/>
+      <c r="H56" s="58"/>
+      <c r="I56" s="58"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="59"/>
-      <c r="B57" s="59"/>
-      <c r="C57" s="62" t="s">
-        <v>28</v>
-      </c>
-      <c r="D57" s="64" t="s">
-        <v>27</v>
-      </c>
-      <c r="E57" s="65" t="s">
-        <v>16</v>
-      </c>
-      <c r="F57" s="55"/>
-      <c r="G57" s="59"/>
-      <c r="H57" s="59"/>
-      <c r="I57" s="59"/>
+      <c r="A57" s="58"/>
+      <c r="B57" s="58"/>
+      <c r="C57" s="61" t="s">
+        <v>136</v>
+      </c>
+      <c r="D57" s="63" t="s">
+        <v>141</v>
+      </c>
+      <c r="E57" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="F57" s="54"/>
+      <c r="G57" s="58"/>
+      <c r="H57" s="58"/>
+      <c r="I57" s="58"/>
     </row>
     <row r="58" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="59"/>
-      <c r="B58" s="59"/>
-      <c r="C58" s="62" t="s">
-        <v>26</v>
-      </c>
-      <c r="D58" s="64" t="s">
-        <v>25</v>
-      </c>
-      <c r="E58" s="65" t="s">
-        <v>16</v>
-      </c>
-      <c r="F58" s="55"/>
-      <c r="G58" s="59"/>
-      <c r="H58" s="59"/>
-      <c r="I58" s="59"/>
+      <c r="A58" s="58"/>
+      <c r="B58" s="58"/>
+      <c r="C58" s="61" t="s">
+        <v>137</v>
+      </c>
+      <c r="D58" s="63" t="s">
+        <v>142</v>
+      </c>
+      <c r="E58" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="F58" s="54"/>
+      <c r="G58" s="58"/>
+      <c r="H58" s="58"/>
+      <c r="I58" s="58"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C62" s="40"/>
+      <c r="C62" s="39"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C63" s="40"/>
+      <c r="C63" s="39"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10488,47 +11026,47 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A2:U44"/>
+  <dimension ref="A2:U48"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24:T27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="72"/>
-    <col min="3" max="3" width="17" style="72" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="106.42578125" style="72" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" style="72" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="72"/>
-    <col min="7" max="7" width="10.5703125" style="72" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9.140625" style="72"/>
-    <col min="10" max="10" width="17.42578125" style="72" customWidth="1"/>
-    <col min="11" max="11" width="10" style="72" customWidth="1"/>
-    <col min="12" max="12" width="13.85546875" style="72" customWidth="1"/>
-    <col min="13" max="13" width="10.5703125" style="72" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="9.140625" style="72"/>
-    <col min="16" max="16" width="9.5703125" style="72" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="72"/>
+    <col min="1" max="2" width="9.140625" style="66"/>
+    <col min="3" max="3" width="17" style="66" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="106.42578125" style="66" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" style="66" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="66"/>
+    <col min="7" max="7" width="10.5703125" style="66" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.140625" style="66"/>
+    <col min="10" max="10" width="17.42578125" style="66" customWidth="1"/>
+    <col min="11" max="11" width="10" style="66" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" style="66" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" style="66" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="9.140625" style="66"/>
+    <col min="16" max="16" width="9.5703125" style="66" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="66"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:21" ht="14.25" x14ac:dyDescent="0.45">
       <c r="G2" s="27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="20" t="s">
         <v>22</v>
-      </c>
-      <c r="F3" s="20" t="s">
-        <v>23</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>0</v>
@@ -10540,43 +11078,43 @@
         <v>2</v>
       </c>
       <c r="J3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="L3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="M3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="N3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="O3" s="6" t="s">
         <v>8</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>9</v>
       </c>
       <c r="P3" s="6"/>
       <c r="Q3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="R3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="R3" s="6" t="s">
+      <c r="S3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="S3" s="6" t="s">
+      <c r="T3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="T3" s="6" t="s">
+      <c r="U3" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="U3" s="6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C4" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
@@ -10598,57 +11136,57 @@
       <c r="U4" s="7"/>
     </row>
     <row r="5" spans="1:21" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="C5" s="72" t="s">
-        <v>55</v>
+      <c r="C5" s="66" t="s">
+        <v>54</v>
       </c>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
       <c r="K5" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="L5" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="L5" s="11" t="s">
+      <c r="M5" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="M5" s="11" t="s">
-        <v>78</v>
-      </c>
       <c r="N5" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O5" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P5" s="11"/>
       <c r="Q5" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R5" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S5" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="T5" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U5" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="C6" s="72" t="s">
-        <v>89</v>
-      </c>
-      <c r="D6" s="72" t="s">
-        <v>88</v>
-      </c>
-      <c r="E6" s="72" t="s">
+      <c r="C6" s="66" t="s">
         <v>87</v>
       </c>
+      <c r="D6" s="66" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" s="66" t="s">
+        <v>85</v>
+      </c>
       <c r="F6" s="28" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G6" s="14">
         <v>2015</v>
@@ -10657,7 +11195,8 @@
         <v>2015</v>
       </c>
       <c r="I6" s="14">
-        <v>1.02</v>
+        <f>0.9</f>
+        <v>0.9</v>
       </c>
       <c r="J6" s="14">
         <v>25</v>
@@ -10700,7 +11239,8 @@
       </c>
       <c r="H7" s="14"/>
       <c r="I7" s="14">
-        <v>1.02</v>
+        <f>0.92</f>
+        <v>0.92</v>
       </c>
       <c r="J7" s="14"/>
       <c r="K7" s="2">
@@ -10739,7 +11279,8 @@
       </c>
       <c r="H8" s="14"/>
       <c r="I8" s="14">
-        <v>1.02</v>
+        <f>0.94</f>
+        <v>0.94</v>
       </c>
       <c r="J8" s="14"/>
       <c r="K8" s="2">
@@ -10770,13 +11311,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="G9" s="14">
         <v>2050</v>
       </c>
       <c r="H9" s="14"/>
       <c r="I9" s="14">
-        <v>1.02</v>
+        <f>0.98</f>
+        <v>0.98</v>
       </c>
       <c r="J9" s="14"/>
       <c r="K9" s="2">
@@ -10807,417 +11349,639 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A12" s="23"/>
-      <c r="B12" s="51" t="s">
-        <v>72</v>
-      </c>
-      <c r="C12" s="52"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="52"/>
-    </row>
-    <row r="13" spans="1:21" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A13" s="23"/>
-      <c r="B13" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="C13" s="53" t="s">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C10" s="66" t="s">
+        <v>153</v>
+      </c>
+      <c r="D10" s="66" t="s">
+        <v>154</v>
+      </c>
+      <c r="E10" s="66" t="s">
+        <v>85</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="G10" s="14">
+        <v>2015</v>
+      </c>
+      <c r="H10" s="14">
+        <v>2015</v>
+      </c>
+      <c r="I10" s="14">
+        <f>0.9</f>
+        <v>0.9</v>
+      </c>
+      <c r="J10" s="14">
+        <v>25</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0.94366666666666676</v>
+      </c>
+      <c r="L10" s="2">
+        <v>2.98E-2</v>
+      </c>
+      <c r="M10" s="18">
+        <v>14.9</v>
+      </c>
+      <c r="N10" s="15">
+        <v>3.1536000000000002E-2</v>
+      </c>
+      <c r="O10" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14">
+        <v>0</v>
+      </c>
+      <c r="R10" s="14">
         <v>20</v>
       </c>
-      <c r="D13" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="E13" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="F13" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="G13" s="53" t="s">
-        <v>67</v>
-      </c>
-      <c r="H13" s="53" t="s">
-        <v>66</v>
-      </c>
-      <c r="I13" s="53" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" ht="31.9" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="23"/>
-      <c r="B14" s="54" t="s">
-        <v>64</v>
-      </c>
-      <c r="C14" s="54" t="s">
-        <v>63</v>
-      </c>
-      <c r="D14" s="54" t="s">
-        <v>62</v>
-      </c>
-      <c r="E14" s="54" t="s">
-        <v>61</v>
-      </c>
-      <c r="F14" s="54" t="s">
-        <v>60</v>
-      </c>
-      <c r="G14" s="54" t="s">
-        <v>59</v>
-      </c>
-      <c r="H14" s="54" t="s">
-        <v>58</v>
-      </c>
-      <c r="I14" s="54" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A15" s="23"/>
-      <c r="B15" s="80" t="s">
-        <v>56</v>
-      </c>
-      <c r="C15" s="78" t="s">
-        <v>89</v>
-      </c>
-      <c r="D15" s="78" t="s">
-        <v>88</v>
-      </c>
-      <c r="E15" s="80" t="s">
-        <v>90</v>
-      </c>
-      <c r="F15" s="80" t="s">
-        <v>53</v>
-      </c>
-      <c r="G15" s="80" t="s">
-        <v>75</v>
-      </c>
-      <c r="H15" s="79"/>
-      <c r="I15" s="79" t="s">
-        <v>74</v>
+      <c r="S10" s="14">
+        <v>2</v>
+      </c>
+      <c r="T10" s="14">
+        <v>0</v>
+      </c>
+      <c r="U10" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="G11" s="14">
+        <v>2020</v>
+      </c>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14">
+        <f>0.92</f>
+        <v>0.92</v>
+      </c>
+      <c r="J11" s="14"/>
+      <c r="K11" s="2">
+        <v>0.91883333333333339</v>
+      </c>
+      <c r="L11" s="2">
+        <v>2.98E-2</v>
+      </c>
+      <c r="M11" s="18">
+        <v>14.9</v>
+      </c>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14">
+        <v>0</v>
+      </c>
+      <c r="R11" s="14">
+        <v>10</v>
+      </c>
+      <c r="S11" s="14">
+        <v>1</v>
+      </c>
+      <c r="T11" s="14">
+        <v>0</v>
+      </c>
+      <c r="U11" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="14">
+        <v>2030</v>
+      </c>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14">
+        <f>0.94</f>
+        <v>0.94</v>
+      </c>
+      <c r="J12" s="14"/>
+      <c r="K12" s="2">
+        <v>0.89400000000000013</v>
+      </c>
+      <c r="L12" s="2">
+        <v>2.98E-2</v>
+      </c>
+      <c r="M12" s="18">
+        <v>14.9</v>
+      </c>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14">
+        <v>0</v>
+      </c>
+      <c r="R12" s="14">
+        <v>5</v>
+      </c>
+      <c r="S12" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="T12" s="14">
+        <v>0</v>
+      </c>
+      <c r="U12" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="G13" s="14">
+        <v>2050</v>
+      </c>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14">
+        <f>0.98</f>
+        <v>0.98</v>
+      </c>
+      <c r="J13" s="14"/>
+      <c r="K13" s="2">
+        <v>0.89400000000000013</v>
+      </c>
+      <c r="L13" s="2">
+        <v>2.98E-2</v>
+      </c>
+      <c r="M13" s="18">
+        <v>14.9</v>
+      </c>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14">
+        <v>0</v>
+      </c>
+      <c r="R13" s="14">
+        <v>5</v>
+      </c>
+      <c r="S13" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="T13" s="14">
+        <v>0</v>
+      </c>
+      <c r="U13" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A16" s="23"/>
-      <c r="B16" s="80"/>
-      <c r="C16" s="78"/>
-      <c r="D16" s="78"/>
-      <c r="E16" s="80"/>
-      <c r="F16" s="80"/>
-      <c r="G16" s="80"/>
-      <c r="H16" s="79"/>
-      <c r="I16" s="79"/>
-    </row>
-    <row r="17" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="B16" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
+    </row>
+    <row r="17" spans="1:20" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A17" s="23"/>
-      <c r="B17" s="80"/>
-      <c r="C17" s="78"/>
-      <c r="D17" s="78"/>
-      <c r="E17" s="80"/>
-      <c r="F17" s="80"/>
-      <c r="G17" s="80"/>
-      <c r="H17" s="79"/>
-      <c r="I17" s="79"/>
-    </row>
-    <row r="18" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="B17" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="G17" s="52" t="s">
+        <v>66</v>
+      </c>
+      <c r="H17" s="52" t="s">
+        <v>65</v>
+      </c>
+      <c r="I17" s="52" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" ht="31.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="23"/>
-      <c r="B18" s="80"/>
-      <c r="C18" s="78"/>
-      <c r="D18" s="78"/>
-      <c r="E18" s="80"/>
-      <c r="F18" s="80"/>
-      <c r="G18" s="80"/>
-      <c r="H18" s="79"/>
-      <c r="I18" s="79"/>
-    </row>
-    <row r="19" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="B18" s="53" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="G18" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="H18" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="I18" s="53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A19" s="23"/>
-      <c r="B19" s="80"/>
-      <c r="C19" s="78"/>
-      <c r="D19" s="78"/>
-      <c r="E19" s="80"/>
-      <c r="F19" s="80"/>
-      <c r="G19" s="80"/>
-      <c r="H19" s="79"/>
-      <c r="I19" s="79"/>
-    </row>
-    <row r="20" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="B19" s="74" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="72" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" s="72" t="s">
+        <v>86</v>
+      </c>
+      <c r="E19" s="74" t="s">
+        <v>88</v>
+      </c>
+      <c r="F19" s="74" t="s">
+        <v>52</v>
+      </c>
+      <c r="G19" s="74" t="s">
+        <v>74</v>
+      </c>
+      <c r="H19" s="73"/>
+      <c r="I19" s="73" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A20" s="23"/>
-      <c r="B20" s="80"/>
-      <c r="C20" s="80"/>
-      <c r="D20" s="80"/>
-      <c r="E20" s="80"/>
-      <c r="F20" s="80"/>
-      <c r="G20" s="80"/>
-      <c r="H20" s="79"/>
-      <c r="I20" s="79"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="25"/>
-      <c r="N20" s="28"/>
-    </row>
-    <row r="21" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="B20" s="74" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="72" t="s">
+        <v>153</v>
+      </c>
+      <c r="D20" s="72" t="s">
+        <v>155</v>
+      </c>
+      <c r="E20" s="74" t="s">
+        <v>88</v>
+      </c>
+      <c r="F20" s="74" t="s">
+        <v>52</v>
+      </c>
+      <c r="G20" s="74" t="s">
+        <v>74</v>
+      </c>
+      <c r="H20" s="73"/>
+      <c r="I20" s="73" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A21" s="23"/>
-      <c r="B21" s="55"/>
-      <c r="C21" s="55"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="56"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="52"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="25"/>
-      <c r="N21" s="28"/>
-    </row>
-    <row r="22" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="B21" s="74"/>
+      <c r="C21" s="72"/>
+      <c r="D21" s="72"/>
+      <c r="E21" s="74"/>
+      <c r="F21" s="74"/>
+      <c r="G21" s="74"/>
+      <c r="H21" s="73"/>
+      <c r="I21" s="73"/>
+    </row>
+    <row r="22" spans="1:20" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A22" s="23"/>
-      <c r="B22" s="55"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="56"/>
-      <c r="H22" s="52"/>
-      <c r="I22" s="52"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="25"/>
-      <c r="N22" s="28"/>
-    </row>
-    <row r="23" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="B22" s="74"/>
+      <c r="C22" s="72"/>
+      <c r="D22" s="72"/>
+      <c r="E22" s="74"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="74"/>
+      <c r="H22" s="73"/>
+      <c r="I22" s="73"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="23"/>
-      <c r="B23" s="55"/>
-      <c r="C23" s="86"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="55"/>
-      <c r="F23" s="55"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="52"/>
-      <c r="I23" s="52"/>
-      <c r="N23" s="28"/>
-    </row>
-    <row r="24" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="B23" s="74"/>
+      <c r="C23" s="72"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="74"/>
+      <c r="F23" s="74"/>
+      <c r="G23" s="74"/>
+      <c r="H23" s="73"/>
+      <c r="I23" s="73"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="23"/>
-      <c r="B24" s="55"/>
-      <c r="C24" s="86"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="52"/>
-      <c r="I24" s="52"/>
-      <c r="N24" s="28"/>
-    </row>
-    <row r="25" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="B24" s="74"/>
+      <c r="C24" s="74"/>
+      <c r="D24" s="74"/>
+      <c r="E24" s="74"/>
+      <c r="F24" s="74"/>
+      <c r="G24" s="74"/>
+      <c r="H24" s="73"/>
+      <c r="I24" s="73"/>
+      <c r="J24" s="93"/>
+      <c r="K24" s="93"/>
+      <c r="L24" s="68"/>
+      <c r="M24" s="93"/>
+      <c r="N24" s="93"/>
+      <c r="O24" s="93"/>
+      <c r="P24" s="93"/>
+      <c r="Q24" s="93"/>
+      <c r="R24" s="93"/>
+      <c r="S24" s="68"/>
+      <c r="T24" s="68"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="23"/>
-      <c r="B25" s="55"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="55"/>
-      <c r="G25" s="56"/>
-      <c r="H25" s="52"/>
-      <c r="I25" s="52"/>
-      <c r="N25" s="28"/>
-    </row>
-    <row r="26" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="B25" s="54"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="93"/>
+      <c r="K25" s="93"/>
+      <c r="L25" s="93"/>
+      <c r="M25" s="93"/>
+      <c r="N25" s="93"/>
+      <c r="O25" s="93"/>
+      <c r="P25" s="93"/>
+      <c r="Q25" s="93"/>
+      <c r="R25" s="93"/>
+      <c r="S25" s="68"/>
+      <c r="T25" s="68"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="23"/>
-      <c r="B26" s="55"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="55"/>
-      <c r="G26" s="56"/>
-      <c r="H26" s="52"/>
-      <c r="I26" s="52"/>
-      <c r="N26" s="28"/>
-    </row>
-    <row r="27" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="B26" s="54"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="93"/>
+      <c r="K26" s="93"/>
+      <c r="L26" s="68"/>
+      <c r="M26" s="93"/>
+      <c r="N26" s="93"/>
+      <c r="O26" s="93"/>
+      <c r="P26" s="93"/>
+      <c r="Q26" s="93"/>
+      <c r="R26" s="93"/>
+      <c r="S26" s="68"/>
+      <c r="T26" s="68"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="23"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="26"/>
-      <c r="N27" s="28"/>
-    </row>
-    <row r="28" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="B27" s="54"/>
+      <c r="C27" s="80"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="68"/>
+      <c r="K27" s="68"/>
+      <c r="L27" s="68"/>
+      <c r="M27" s="68"/>
+      <c r="N27" s="94"/>
+      <c r="O27" s="68"/>
+      <c r="P27" s="68"/>
+      <c r="Q27" s="68"/>
+      <c r="R27" s="68"/>
+      <c r="S27" s="68"/>
+      <c r="T27" s="68"/>
+    </row>
+    <row r="28" spans="1:20" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A28" s="23"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="26"/>
+      <c r="B28" s="54"/>
+      <c r="C28" s="80"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="51"/>
       <c r="N28" s="28"/>
     </row>
-    <row r="32" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A32" s="58"/>
-      <c r="B32" s="58"/>
-      <c r="C32" s="59"/>
-      <c r="D32" s="59"/>
-      <c r="E32" s="59"/>
-      <c r="F32" s="59"/>
-      <c r="G32" s="59"/>
-      <c r="H32" s="59"/>
-      <c r="I32" s="59"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="53" t="s">
-        <v>52</v>
-      </c>
-      <c r="B33" s="53" t="s">
+    <row r="29" spans="1:20" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A29" s="23"/>
+      <c r="B29" s="54"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="51"/>
+      <c r="I29" s="51"/>
+      <c r="N29" s="28"/>
+    </row>
+    <row r="30" spans="1:20" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A30" s="23"/>
+      <c r="B30" s="54"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="51"/>
+      <c r="N30" s="28"/>
+    </row>
+    <row r="31" spans="1:20" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A31" s="23"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="26"/>
+      <c r="N31" s="28"/>
+    </row>
+    <row r="32" spans="1:20" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A32" s="23"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="26"/>
+      <c r="N32" s="28"/>
+    </row>
+    <row r="36" spans="1:9" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A36" s="57"/>
+      <c r="B36" s="57"/>
+      <c r="C36" s="58"/>
+      <c r="D36" s="58"/>
+      <c r="E36" s="58"/>
+      <c r="F36" s="58"/>
+      <c r="G36" s="58"/>
+      <c r="H36" s="58"/>
+      <c r="I36" s="58"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="C33" s="53" t="s">
+      <c r="B37" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="D33" s="53" t="s">
+      <c r="C37" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="E33" s="53" t="s">
+      <c r="D37" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="E37" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="F37" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="G37" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="I37" s="52" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" s="60" t="s">
+        <v>41</v>
+      </c>
+      <c r="D38" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="F33" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="G33" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="H33" s="53" t="s">
-        <v>46</v>
-      </c>
-      <c r="I33" s="53" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="B34" s="61" t="s">
-        <v>43</v>
-      </c>
-      <c r="C34" s="61" t="s">
-        <v>42</v>
-      </c>
-      <c r="D34" s="61" t="s">
-        <v>41</v>
-      </c>
-      <c r="E34" s="61" t="s">
-        <v>40</v>
-      </c>
-      <c r="F34" s="61" t="s">
+      <c r="E38" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="G34" s="61" t="s">
+      <c r="F38" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="H34" s="61" t="s">
+      <c r="G38" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="I34" s="61" t="s">
+      <c r="H38" s="60" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="62" t="s">
+      <c r="I38" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="63"/>
-      <c r="C35" s="62" t="s">
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="D35" s="64" t="s">
-        <v>33</v>
-      </c>
-      <c r="E35" s="65" t="s">
-        <v>16</v>
-      </c>
-      <c r="F35" s="55"/>
-      <c r="G35" s="55"/>
-      <c r="H35" s="55"/>
-      <c r="I35" s="55"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="59"/>
-      <c r="B36" s="59"/>
-      <c r="C36" s="62" t="s">
-        <v>32</v>
-      </c>
-      <c r="D36" s="64" t="s">
-        <v>31</v>
-      </c>
-      <c r="E36" s="65" t="s">
-        <v>16</v>
-      </c>
-      <c r="F36" s="55"/>
-      <c r="G36" s="59"/>
-      <c r="H36" s="59"/>
-      <c r="I36" s="59"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="59"/>
-      <c r="B37" s="59"/>
-      <c r="C37" s="62" t="s">
-        <v>30</v>
-      </c>
-      <c r="D37" s="64" t="s">
-        <v>29</v>
-      </c>
-      <c r="E37" s="65" t="s">
-        <v>16</v>
-      </c>
-      <c r="F37" s="55"/>
-      <c r="G37" s="59"/>
-      <c r="H37" s="59"/>
-      <c r="I37" s="59"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="59"/>
-      <c r="B38" s="59"/>
-      <c r="C38" s="62" t="s">
-        <v>28</v>
-      </c>
-      <c r="D38" s="64" t="s">
-        <v>27</v>
-      </c>
-      <c r="E38" s="65" t="s">
-        <v>16</v>
-      </c>
-      <c r="F38" s="55"/>
-      <c r="G38" s="59"/>
-      <c r="H38" s="59"/>
-      <c r="I38" s="59"/>
-    </row>
-    <row r="39" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="59"/>
-      <c r="B39" s="59"/>
-      <c r="C39" s="62" t="s">
-        <v>26</v>
-      </c>
-      <c r="D39" s="64" t="s">
-        <v>25</v>
-      </c>
-      <c r="E39" s="65" t="s">
-        <v>16</v>
-      </c>
-      <c r="F39" s="55"/>
-      <c r="G39" s="59"/>
-      <c r="H39" s="59"/>
-      <c r="I39" s="59"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C43" s="40"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C44" s="40"/>
+      <c r="B39" s="62"/>
+      <c r="C39" s="61" t="s">
+        <v>148</v>
+      </c>
+      <c r="D39" s="63" t="s">
+        <v>143</v>
+      </c>
+      <c r="E39" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="F39" s="54"/>
+      <c r="G39" s="54"/>
+      <c r="H39" s="54"/>
+      <c r="I39" s="54"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="58"/>
+      <c r="B40" s="58"/>
+      <c r="C40" s="61" t="s">
+        <v>149</v>
+      </c>
+      <c r="D40" s="63" t="s">
+        <v>144</v>
+      </c>
+      <c r="E40" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" s="54"/>
+      <c r="G40" s="58"/>
+      <c r="H40" s="58"/>
+      <c r="I40" s="58"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="58"/>
+      <c r="B41" s="58"/>
+      <c r="C41" s="61" t="s">
+        <v>150</v>
+      </c>
+      <c r="D41" s="63" t="s">
+        <v>145</v>
+      </c>
+      <c r="E41" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41" s="54"/>
+      <c r="G41" s="58"/>
+      <c r="H41" s="58"/>
+      <c r="I41" s="58"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="58"/>
+      <c r="B42" s="58"/>
+      <c r="C42" s="61" t="s">
+        <v>151</v>
+      </c>
+      <c r="D42" s="63" t="s">
+        <v>146</v>
+      </c>
+      <c r="E42" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="F42" s="54"/>
+      <c r="G42" s="58"/>
+      <c r="H42" s="58"/>
+      <c r="I42" s="58"/>
+    </row>
+    <row r="43" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="58"/>
+      <c r="B43" s="58"/>
+      <c r="C43" s="61" t="s">
+        <v>152</v>
+      </c>
+      <c r="D43" s="63" t="s">
+        <v>147</v>
+      </c>
+      <c r="E43" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43" s="54"/>
+      <c r="G43" s="58"/>
+      <c r="H43" s="58"/>
+      <c r="I43" s="58"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C47" s="39"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C48" s="39"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11226,6 +11990,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Phase xmlns="http://schemas.microsoft.com/sharepoint/v3/fields">
+      <Value>Contracted</Value>
+    </Phase>
+    <PortalAuthor xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="File" ma:contentTypeID="0x0101000DD098BE9899426A8B0406C5EF9CA50A0088BDD742C1DD304A87D731357DBB47E2" ma:contentTypeVersion="1" ma:contentTypeDescription="This is the base type for all file formats" ma:contentTypeScope="" ma:versionID="7ff74889935fc138bd7541b24877147a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="http://schemas.microsoft.com/sharepoint/v3/fields" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="46dc3d67e2c7a72f7fde2a6a9b1bcac1" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3/fields"/>
@@ -11307,27 +12091,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE784753-1928-4D6F-83BC-1FAE29BA76C6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Phase xmlns="http://schemas.microsoft.com/sharepoint/v3/fields">
-      <Value>Contracted</Value>
-    </Phase>
-    <PortalAuthor xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5848600-2E8A-4836-874B-3D5E5B443EC6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5D6C50A-3B64-4A50-9420-90562322C579}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11342,28 +12130,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5848600-2E8A-4836-874B-3D5E5B443EC6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE784753-1928-4D6F-83BC-1FAE29BA76C6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>